--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T08:58:45+00:00</t>
+    <t>2023-07-11T09:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24055" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24052" uniqueCount="1178">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:59+00:00</t>
+    <t>2023-07-26T14:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2265,7 +2265,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
 </t>
   </si>
   <si>
@@ -2521,11 +2521,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -2559,10 +2555,6 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t>Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-DevicePractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole}Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner}</t>
-  </si>
-  <si>
     <t>Contained, inline Resources</t>
   </si>
   <si>
@@ -2662,9 +2654,6 @@
   </si>
   <si>
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
@@ -2712,7 +2701,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t>Représente l'identifiant du patient.</t>
+    <t>Référence vers le patient concerné par le document.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
@@ -2756,14 +2745,6 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
-  </si>
-  <si>
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
@@ -2778,13 +2759,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>DocumentReference.custodian</t>
@@ -3288,6 +3262,10 @@
     <t>DocumentReference.context.sourcePatientInfo</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
   </si>
   <si>
@@ -3429,14 +3407,13 @@
     <t>Kind of document (LOINC if possible)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
-</t>
+    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>Patient concerné par ce document. La ressource référencée peut être présente sous l’élément DocumentReference.contained ou via le champ identifier.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interopsante.org/fhir/StructureDefinition/FrPractitioner|http://interopsante.org/fhir/StructureDefinition/FrOrganization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
 </t>
   </si>
   <si>
@@ -3490,10 +3467,6 @@
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Comprehensive.SubmissionSet</t>
-  </si>
-  <si>
-    <t>Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner}
-Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole}Device</t>
   </si>
   <si>
     <t>2</t>
@@ -3537,9 +3510,6 @@
     <t>List.extension.value[x]</t>
   </si>
   <si>
-    <t>XDS contentTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
   </si>
   <si>
@@ -3579,38 +3549,45 @@
 </t>
   </si>
   <si>
-    <t>Intended recipient of the SubmissionSet</t>
+    <t>Représente le destinataire du lot de soumission. Il peut s'agir d'un AsPractitioner associé à un AsPractitionerRole ou bien d'une AsOrganization.</t>
   </si>
   <si>
     <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
   </si>
   <si>
+    <t>List.extension:intendedRecipient.id</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.extension</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.url</t>
+  </si>
+  <si>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-intendedRecipient</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Group|Device|Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
     <t>List.extension:isArchived</t>
   </si>
   <si>
     <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmintendedrecipient}
-</t>
-  </si>
-  <si>
-    <t>Les ressources référencées sont : - PractitionerRole : Dans le cas d’un destinaire professionnel, c’est le profil PractitionerRoleOrgani zationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfes sionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner. - Organization contrainte au profil FrOrganization</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.id</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.extension</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.url</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SubmissionSetUniqueIdIdentifier}
@@ -3643,9 +3620,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Référence vers la ressource Patient contained titulaire du dossier.</t>
-  </si>
-  <si>
     <t>Représente la date et heure de soumission.</t>
   </si>
   <si>
@@ -3672,10 +3646,10 @@
 </t>
   </si>
   <si>
-    <t>Organisation auteur du document</t>
-  </si>
-  <si>
     <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+  </si>
+  <si>
+    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -3715,13 +3689,6 @@
   </si>
   <si>
     <t>List.source.extension:authorOrg.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -4846,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="124">
@@ -4854,7 +4821,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="125">
@@ -4870,7 +4837,7 @@
         <v>8</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="127">
@@ -4878,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="128">
@@ -4924,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="134">
@@ -4968,7 +4935,7 @@
         <v>31</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="140">
@@ -5000,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="144">
@@ -5008,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="145">
@@ -5024,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="147">
@@ -5032,7 +4999,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="148">
@@ -5078,7 +5045,7 @@
         <v>21</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="154">
@@ -5122,7 +5089,7 @@
         <v>31</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="160">
@@ -5154,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="164">
@@ -5162,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>1181</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="165">
@@ -5178,7 +5145,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1182</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="167">
@@ -5186,7 +5153,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1183</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="168">
@@ -5232,7 +5199,7 @@
         <v>21</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="174">
@@ -5300,7 +5267,7 @@
         <v>546</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="183">
@@ -5330,7 +5297,7 @@
     <col min="1" max="1" width="53.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="53.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="24.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -31143,7 +31110,7 @@
         <v>38</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I248" t="s" s="2">
         <v>37</v>
@@ -59923,7 +59890,7 @@
         <v>37</v>
       </c>
       <c r="AK523" t="s" s="2">
-        <v>805</v>
+        <v>56</v>
       </c>
     </row>
     <row r="524">
@@ -59931,10 +59898,10 @@
         <v>793</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -60036,10 +60003,10 @@
         <v>793</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -60141,10 +60108,10 @@
         <v>793</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -60246,10 +60213,10 @@
         <v>793</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -60351,10 +60318,10 @@
         <v>793</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -60456,10 +60423,10 @@
         <v>793</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -60561,10 +60528,10 @@
         <v>793</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -60666,10 +60633,10 @@
         <v>793</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -60771,14 +60738,14 @@
         <v>793</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
@@ -60797,13 +60764,13 @@
         <v>37</v>
       </c>
       <c r="L532" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M532" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N532" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="M532" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N532" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="O532" t="s" s="2">
         <v>668</v>
@@ -60876,10 +60843,10 @@
         <v>793</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60977,13 +60944,13 @@
         <v>793</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C534" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="D534" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="D534" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="E534" t="s" s="2">
         <v>37</v>
@@ -61005,13 +60972,13 @@
         <v>37</v>
       </c>
       <c r="L534" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M534" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N534" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="M534" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="N534" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
@@ -61082,10 +61049,10 @@
         <v>793</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -61185,10 +61152,10 @@
         <v>793</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -61214,16 +61181,16 @@
         <v>687</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N536" t="s" s="2">
         <v>689</v>
       </c>
       <c r="O536" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="P536" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q536" t="s" s="2">
         <v>37</v>
@@ -61272,7 +61239,7 @@
         <v>37</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>38</v>
@@ -61292,10 +61259,10 @@
         <v>793</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -61321,10 +61288,10 @@
         <v>128</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
@@ -61373,7 +61340,7 @@
         <v>70</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>38</v>
@@ -61393,10 +61360,10 @@
         <v>793</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D538" t="s" s="2">
         <v>691</v>
@@ -61424,7 +61391,7 @@
         <v>692</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N538" t="s" s="2">
         <v>689</v>
@@ -61478,7 +61445,7 @@
         <v>37</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>38</v>
@@ -61498,10 +61465,10 @@
         <v>793</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -61527,13 +61494,13 @@
         <v>119</v>
       </c>
       <c r="M539" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N539" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O539" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N539" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O539" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -61563,7 +61530,7 @@
       </c>
       <c r="Z539" s="2"/>
       <c r="AA539" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AB539" t="s" s="2">
         <v>37</v>
@@ -61581,7 +61548,7 @@
         <v>37</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>44</v>
@@ -61601,10 +61568,10 @@
         <v>793</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -61630,13 +61597,13 @@
         <v>119</v>
       </c>
       <c r="M540" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N540" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O540" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="N540" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="O540" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="P540" s="2"/>
       <c r="Q540" t="s" s="2">
@@ -61665,10 +61632,10 @@
         <v>137</v>
       </c>
       <c r="Z540" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AA540" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB540" t="s" s="2">
         <v>37</v>
@@ -61686,7 +61653,7 @@
         <v>37</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>38</v>
@@ -61706,10 +61673,10 @@
         <v>793</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -61735,13 +61702,13 @@
         <v>714</v>
       </c>
       <c r="M541" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="N541" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="O541" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N541" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="O541" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -61769,11 +61736,9 @@
       <c r="Y541" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Z541" t="s" s="2">
-        <v>850</v>
-      </c>
+      <c r="Z541" s="2"/>
       <c r="AA541" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AB541" t="s" s="2">
         <v>37</v>
@@ -61791,7 +61756,7 @@
         <v>37</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>38</v>
@@ -61803,7 +61768,7 @@
         <v>37</v>
       </c>
       <c r="AK541" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="542">
@@ -61811,14 +61776,14 @@
         <v>793</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" t="s" s="2">
@@ -61840,13 +61805,13 @@
         <v>714</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="O542" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61875,10 +61840,10 @@
         <v>123</v>
       </c>
       <c r="Z542" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AA542" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AB542" t="s" s="2">
         <v>37</v>
@@ -61896,7 +61861,7 @@
         <v>37</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>38</v>
@@ -61908,7 +61873,7 @@
         <v>37</v>
       </c>
       <c r="AK542" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="543">
@@ -61916,10 +61881,10 @@
         <v>793</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61945,10 +61910,10 @@
         <v>722</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -61999,19 +61964,19 @@
         <v>37</v>
       </c>
       <c r="AG543" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="AH543" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI543" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ543" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK543" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="AH543" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI543" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ543" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK543" t="s" s="2">
-        <v>864</v>
       </c>
     </row>
     <row r="544">
@@ -62019,14 +61984,14 @@
         <v>793</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -62048,13 +62013,13 @@
         <v>79</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O544" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -62104,7 +62069,7 @@
         <v>37</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>38</v>
@@ -62124,10 +62089,10 @@
         <v>793</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62150,16 +62115,16 @@
         <v>45</v>
       </c>
       <c r="L545" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="M545" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N545" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="O545" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="M545" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="N545" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -62209,7 +62174,7 @@
         <v>37</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>38</v>
@@ -62221,7 +62186,7 @@
         <v>37</v>
       </c>
       <c r="AK545" t="s" s="2">
-        <v>875</v>
+        <v>56</v>
       </c>
     </row>
     <row r="546">
@@ -62229,10 +62194,10 @@
         <v>793</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -62255,16 +62220,16 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="O546" t="s" s="2">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -62314,7 +62279,7 @@
         <v>37</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>38</v>
@@ -62326,7 +62291,7 @@
         <v>37</v>
       </c>
       <c r="AK546" t="s" s="2">
-        <v>881</v>
+        <v>56</v>
       </c>
     </row>
     <row r="547">
@@ -62334,10 +62299,10 @@
         <v>793</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -62360,16 +62325,16 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="O547" t="s" s="2">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -62419,7 +62384,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62439,10 +62404,10 @@
         <v>793</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -62468,13 +62433,13 @@
         <v>151</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="O548" t="s" s="2">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -62524,7 +62489,7 @@
         <v>37</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>38</v>
@@ -62536,7 +62501,7 @@
         <v>37</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="549">
@@ -62544,10 +62509,10 @@
         <v>793</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -62647,10 +62612,10 @@
         <v>793</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62752,10 +62717,10 @@
         <v>793</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62859,10 +62824,10 @@
         <v>793</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62888,13 +62853,13 @@
         <v>119</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="O552" t="s" s="2">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -62923,10 +62888,10 @@
         <v>137</v>
       </c>
       <c r="Z552" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="AA552" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="AB552" t="s" s="2">
         <v>37</v>
@@ -62944,7 +62909,7 @@
         <v>37</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>44</v>
@@ -62964,10 +62929,10 @@
         <v>793</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62990,13 +62955,13 @@
         <v>45</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -63047,7 +63012,7 @@
         <v>37</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>44</v>
@@ -63059,7 +63024,7 @@
         <v>37</v>
       </c>
       <c r="AK553" t="s" s="2">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="554">
@@ -63067,10 +63032,10 @@
         <v>793</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -63096,16 +63061,16 @@
         <v>58</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="O554" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="P554" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>37</v>
@@ -63154,7 +63119,7 @@
         <v>37</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>38</v>
@@ -63174,10 +63139,10 @@
         <v>793</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -63203,16 +63168,16 @@
         <v>714</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="O555" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="P555" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="Q555" t="s" s="2">
         <v>37</v>
@@ -63261,7 +63226,7 @@
         <v>37</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>38</v>
@@ -63273,7 +63238,7 @@
         <v>37</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="556">
@@ -63281,10 +63246,10 @@
         <v>793</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -63310,10 +63275,10 @@
         <v>151</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -63364,7 +63329,7 @@
         <v>37</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>44</v>
@@ -63384,10 +63349,10 @@
         <v>793</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -63487,10 +63452,10 @@
         <v>793</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63592,10 +63557,10 @@
         <v>793</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63699,10 +63664,10 @@
         <v>793</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63725,13 +63690,13 @@
         <v>45</v>
       </c>
       <c r="L560" t="s" s="2">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="N560" t="s" s="2">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -63782,7 +63747,7 @@
         <v>37</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>44</v>
@@ -63802,10 +63767,10 @@
         <v>793</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63905,10 +63870,10 @@
         <v>793</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -64010,10 +63975,10 @@
         <v>793</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -64039,14 +64004,14 @@
         <v>119</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>37</v>
@@ -64059,7 +64024,7 @@
         <v>37</v>
       </c>
       <c r="U563" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="V563" t="s" s="2">
         <v>37</v>
@@ -64074,10 +64039,10 @@
         <v>137</v>
       </c>
       <c r="Z563" t="s" s="2">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="AA563" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="AB563" t="s" s="2">
         <v>37</v>
@@ -64095,7 +64060,7 @@
         <v>37</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>38</v>
@@ -64115,10 +64080,10 @@
         <v>793</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64144,14 +64109,14 @@
         <v>119</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>37</v>
@@ -64164,7 +64129,7 @@
         <v>37</v>
       </c>
       <c r="U564" t="s" s="2">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="V564" t="s" s="2">
         <v>37</v>
@@ -64200,7 +64165,7 @@
         <v>37</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>38</v>
@@ -64220,10 +64185,10 @@
         <v>793</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64246,19 +64211,19 @@
         <v>37</v>
       </c>
       <c r="L565" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="O565" t="s" s="2">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="P565" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>37</v>
@@ -64307,7 +64272,7 @@
         <v>37</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>38</v>
@@ -64327,10 +64292,10 @@
         <v>793</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64353,19 +64318,19 @@
         <v>45</v>
       </c>
       <c r="L566" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="M566" t="s" s="2">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="N566" t="s" s="2">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="O566" t="s" s="2">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="P566" t="s" s="2">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>37</v>
@@ -64378,7 +64343,7 @@
         <v>37</v>
       </c>
       <c r="U566" t="s" s="2">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="V566" t="s" s="2">
         <v>37</v>
@@ -64414,7 +64379,7 @@
         <v>37</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>38</v>
@@ -64426,7 +64391,7 @@
         <v>37</v>
       </c>
       <c r="AK566" t="s" s="2">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="567">
@@ -64434,10 +64399,10 @@
         <v>793</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -64463,16 +64428,16 @@
         <v>145</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="P567" t="s" s="2">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>37</v>
@@ -64521,7 +64486,7 @@
         <v>37</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>38</v>
@@ -64541,10 +64506,10 @@
         <v>793</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64567,19 +64532,19 @@
         <v>45</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="P568" t="s" s="2">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>37</v>
@@ -64628,7 +64593,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64648,10 +64613,10 @@
         <v>793</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64677,14 +64642,14 @@
         <v>58</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>37</v>
@@ -64697,7 +64662,7 @@
         <v>37</v>
       </c>
       <c r="U569" t="s" s="2">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="V569" t="s" s="2">
         <v>37</v>
@@ -64733,7 +64698,7 @@
         <v>37</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64753,10 +64718,10 @@
         <v>793</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64782,14 +64747,14 @@
         <v>732</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>37</v>
@@ -64838,7 +64803,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64858,10 +64823,10 @@
         <v>793</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64887,13 +64852,13 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="O571" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64922,10 +64887,10 @@
         <v>123</v>
       </c>
       <c r="Z571" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="AA571" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="AB571" t="s" s="2">
         <v>37</v>
@@ -64943,7 +64908,7 @@
         <v>37</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>38</v>
@@ -64955,7 +64920,7 @@
         <v>37</v>
       </c>
       <c r="AK571" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="572">
@@ -64963,10 +64928,10 @@
         <v>793</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64992,13 +64957,13 @@
         <v>151</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="O572" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -65048,7 +65013,7 @@
         <v>37</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>38</v>
@@ -65068,10 +65033,10 @@
         <v>793</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -65171,10 +65136,10 @@
         <v>793</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -65276,10 +65241,10 @@
         <v>793</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -65383,10 +65348,10 @@
         <v>793</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -65409,13 +65374,13 @@
         <v>37</v>
       </c>
       <c r="L576" t="s" s="2">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -65466,7 +65431,7 @@
         <v>37</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>38</v>
@@ -65486,10 +65451,10 @@
         <v>793</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -65515,13 +65480,13 @@
         <v>714</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O577" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -65550,10 +65515,10 @@
         <v>109</v>
       </c>
       <c r="Z577" t="s" s="2">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="AA577" t="s" s="2">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AB577" t="s" s="2">
         <v>37</v>
@@ -65571,7 +65536,7 @@
         <v>37</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>38</v>
@@ -65583,7 +65548,7 @@
         <v>37</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="578">
@@ -65591,10 +65556,10 @@
         <v>793</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65617,13 +65582,13 @@
         <v>45</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -65674,7 +65639,7 @@
         <v>37</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>38</v>
@@ -65694,10 +65659,10 @@
         <v>793</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65797,10 +65762,10 @@
         <v>793</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65902,10 +65867,10 @@
         <v>793</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65931,13 +65896,13 @@
         <v>732</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="O581" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
@@ -65987,7 +65952,7 @@
         <v>37</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>38</v>
@@ -65996,7 +65961,7 @@
         <v>44</v>
       </c>
       <c r="AJ581" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="AK581" t="s" s="2">
         <v>56</v>
@@ -66007,10 +65972,10 @@
         <v>793</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -66036,20 +66001,20 @@
         <v>732</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="N582" t="s" s="2">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="O582" t="s" s="2">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R582" t="s" s="2">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="S582" t="s" s="2">
         <v>37</v>
@@ -66094,7 +66059,7 @@
         <v>37</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>38</v>
@@ -66103,7 +66068,7 @@
         <v>44</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>56</v>
@@ -66114,10 +66079,10 @@
         <v>793</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66143,10 +66108,10 @@
         <v>714</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -66176,10 +66141,10 @@
         <v>123</v>
       </c>
       <c r="Z583" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AA583" t="s" s="2">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="AB583" t="s" s="2">
         <v>37</v>
@@ -66197,19 +66162,19 @@
         <v>37</v>
       </c>
       <c r="AG583" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="AH583" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI583" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK583" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="AH583" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI583" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>1030</v>
       </c>
     </row>
     <row r="584">
@@ -66217,10 +66182,10 @@
         <v>793</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66246,16 +66211,16 @@
         <v>714</v>
       </c>
       <c r="M584" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="N584" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="O584" t="s" s="2">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="P584" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>37</v>
@@ -66283,10 +66248,10 @@
         <v>123</v>
       </c>
       <c r="Z584" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AA584" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="AB584" t="s" s="2">
         <v>37</v>
@@ -66304,7 +66269,7 @@
         <v>37</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>38</v>
@@ -66316,7 +66281,7 @@
         <v>37</v>
       </c>
       <c r="AK584" t="s" s="2">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="585">
@@ -66324,10 +66289,10 @@
         <v>793</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66350,13 +66315,13 @@
         <v>37</v>
       </c>
       <c r="L585" t="s" s="2">
-        <v>722</v>
+        <v>1034</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -66407,7 +66372,7 @@
         <v>37</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>38</v>
@@ -66427,10 +66392,10 @@
         <v>793</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66530,10 +66495,10 @@
         <v>793</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -66635,10 +66600,10 @@
         <v>793</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -66664,13 +66629,13 @@
         <v>58</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="N588" t="s" s="2">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="O588" t="s" s="2">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -66720,7 +66685,7 @@
         <v>37</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>38</v>
@@ -66729,7 +66694,7 @@
         <v>44</v>
       </c>
       <c r="AJ588" t="s" s="2">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AK588" t="s" s="2">
         <v>56</v>
@@ -66740,10 +66705,10 @@
         <v>793</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66769,13 +66734,13 @@
         <v>85</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="O589" t="s" s="2">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -66804,10 +66769,10 @@
         <v>101</v>
       </c>
       <c r="Z589" t="s" s="2">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="AA589" t="s" s="2">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="AB589" t="s" s="2">
         <v>37</v>
@@ -66825,7 +66790,7 @@
         <v>37</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>38</v>
@@ -66845,10 +66810,10 @@
         <v>793</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66874,13 +66839,13 @@
         <v>128</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="O590" t="s" s="2">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
@@ -66930,7 +66895,7 @@
         <v>37</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>38</v>
@@ -66950,10 +66915,10 @@
         <v>793</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -66979,13 +66944,13 @@
         <v>58</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="O591" t="s" s="2">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
@@ -67035,7 +67000,7 @@
         <v>37</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>38</v>
@@ -67055,10 +67020,10 @@
         <v>793</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67081,16 +67046,16 @@
         <v>37</v>
       </c>
       <c r="L592" t="s" s="2">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="O592" t="s" s="2">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="P592" s="2"/>
       <c r="Q592" t="s" s="2">
@@ -67140,7 +67105,7 @@
         <v>37</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>38</v>
@@ -67157,7 +67122,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>608</v>
@@ -67262,7 +67227,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>799</v>
@@ -67367,7 +67332,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>800</v>
@@ -67470,7 +67435,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>801</v>
@@ -67573,7 +67538,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>802</v>
@@ -67678,7 +67643,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>803</v>
@@ -67778,18 +67743,18 @@
         <v>548</v>
       </c>
       <c r="AK598" t="s" s="2">
-        <v>805</v>
+        <v>56</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -67888,13 +67853,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -67993,13 +67958,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -68098,13 +68063,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -68203,13 +68168,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -68308,13 +68273,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -68413,13 +68378,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -68518,13 +68483,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68623,17 +68588,17 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
@@ -68655,10 +68620,10 @@
         <v>187</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O607" t="s" s="2">
         <v>668</v>
@@ -68728,13 +68693,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68763,7 +68728,7 @@
         <v>65</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="O608" t="s" s="2">
         <v>67</v>
@@ -68833,13 +68798,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -68936,13 +68901,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -68968,16 +68933,16 @@
         <v>128</v>
       </c>
       <c r="M610" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N610" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="O610" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="P610" t="s" s="2">
         <v>827</v>
-      </c>
-      <c r="N610" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="O610" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="P610" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>37</v>
@@ -69026,7 +68991,7 @@
         <v>37</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>38</v>
@@ -69043,13 +69008,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69075,10 +69040,10 @@
         <v>128</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
@@ -69129,7 +69094,7 @@
         <v>37</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>38</v>
@@ -69146,13 +69111,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69178,13 +69143,13 @@
         <v>119</v>
       </c>
       <c r="M612" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N612" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O612" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N612" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O612" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="P612" s="2"/>
       <c r="Q612" t="s" s="2">
@@ -69195,7 +69160,7 @@
         <v>37</v>
       </c>
       <c r="T612" t="s" s="2">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="U612" t="s" s="2">
         <v>37</v>
@@ -69213,10 +69178,10 @@
         <v>137</v>
       </c>
       <c r="Z612" t="s" s="2">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AA612" t="s" s="2">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="AB612" t="s" s="2">
         <v>37</v>
@@ -69234,7 +69199,7 @@
         <v>37</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>44</v>
@@ -69251,13 +69216,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -69283,13 +69248,13 @@
         <v>119</v>
       </c>
       <c r="M613" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N613" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O613" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="N613" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="O613" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="P613" s="2"/>
       <c r="Q613" t="s" s="2">
@@ -69318,10 +69283,10 @@
         <v>137</v>
       </c>
       <c r="Z613" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AA613" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB613" t="s" s="2">
         <v>37</v>
@@ -69339,7 +69304,7 @@
         <v>37</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>38</v>
@@ -69356,13 +69321,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69388,13 +69353,13 @@
         <v>714</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="N614" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="O614" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="O614" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P614" s="2"/>
       <c r="Q614" t="s" s="2">
@@ -69423,10 +69388,10 @@
         <v>123</v>
       </c>
       <c r="Z614" t="s" s="2">
-        <v>850</v>
+        <v>1079</v>
       </c>
       <c r="AA614" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AB614" t="s" s="2">
         <v>37</v>
@@ -69444,7 +69409,7 @@
         <v>37</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>38</v>
@@ -69456,22 +69421,22 @@
         <v>37</v>
       </c>
       <c r="AK614" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F615" s="2"/>
       <c r="G615" t="s" s="2">
@@ -69493,13 +69458,13 @@
         <v>714</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="O615" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69528,10 +69493,10 @@
         <v>123</v>
       </c>
       <c r="Z615" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AA615" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
@@ -69549,7 +69514,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>38</v>
@@ -69561,18 +69526,18 @@
         <v>37</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69595,13 +69560,13 @@
         <v>45</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>1083</v>
+        <v>722</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69652,7 +69617,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>38</v>
@@ -69669,17 +69634,17 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
@@ -69701,13 +69666,13 @@
         <v>79</v>
       </c>
       <c r="M617" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N617" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O617" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="P617" s="2"/>
       <c r="Q617" t="s" s="2">
@@ -69757,7 +69722,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69774,13 +69739,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69803,16 +69768,16 @@
         <v>45</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="O618" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -69862,7 +69827,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69874,18 +69839,18 @@
         <v>37</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>875</v>
+        <v>56</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69911,13 +69876,13 @@
         <v>557</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="O619" t="s" s="2">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
@@ -69967,7 +69932,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>38</v>
@@ -69979,18 +69944,18 @@
         <v>37</v>
       </c>
       <c r="AK619" t="s" s="2">
-        <v>881</v>
+        <v>56</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -70013,16 +69978,16 @@
         <v>37</v>
       </c>
       <c r="L620" t="s" s="2">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -70072,7 +70037,7 @@
         <v>37</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>38</v>
@@ -70089,13 +70054,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70121,13 +70086,13 @@
         <v>151</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -70177,7 +70142,7 @@
         <v>37</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>38</v>
@@ -70194,13 +70159,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70297,13 +70262,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70402,13 +70367,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70509,13 +70474,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70541,13 +70506,13 @@
         <v>119</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="O625" t="s" s="2">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -70576,10 +70541,10 @@
         <v>137</v>
       </c>
       <c r="Z625" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="AA625" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="AB625" t="s" s="2">
         <v>37</v>
@@ -70597,7 +70562,7 @@
         <v>37</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>44</v>
@@ -70614,13 +70579,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70643,13 +70608,13 @@
         <v>45</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -70700,7 +70665,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>44</v>
@@ -70717,13 +70682,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70749,16 +70714,16 @@
         <v>58</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="O627" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="P627" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70807,7 +70772,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70824,13 +70789,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70856,16 +70821,16 @@
         <v>714</v>
       </c>
       <c r="M628" t="s" s="2">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="N628" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="O628" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="P628" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70914,7 +70879,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70926,18 +70891,18 @@
         <v>37</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70963,10 +70928,10 @@
         <v>151</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
@@ -71017,7 +70982,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>44</v>
@@ -71034,13 +70999,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71137,13 +71102,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71242,13 +71207,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71349,13 +71314,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71378,13 +71343,13 @@
         <v>45</v>
       </c>
       <c r="L633" t="s" s="2">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -71435,7 +71400,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>44</v>
@@ -71452,13 +71417,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71555,13 +71520,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71660,13 +71625,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71692,14 +71657,14 @@
         <v>119</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>37</v>
@@ -71712,7 +71677,7 @@
         <v>37</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>37</v>
@@ -71727,10 +71692,10 @@
         <v>137</v>
       </c>
       <c r="Z636" t="s" s="2">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="AA636" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="AB636" t="s" s="2">
         <v>37</v>
@@ -71748,7 +71713,7 @@
         <v>37</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>38</v>
@@ -71765,13 +71730,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71797,14 +71762,14 @@
         <v>119</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>37</v>
@@ -71817,7 +71782,7 @@
         <v>37</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>37</v>
@@ -71853,7 +71818,7 @@
         <v>37</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>38</v>
@@ -71870,13 +71835,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71899,19 +71864,19 @@
         <v>37</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="N638" t="s" s="2">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="O638" t="s" s="2">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="P638" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="Q638" t="s" s="2">
         <v>37</v>
@@ -71960,7 +71925,7 @@
         <v>37</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>38</v>
@@ -71977,13 +71942,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -72006,19 +71971,19 @@
         <v>45</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="O639" t="s" s="2">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="P639" t="s" s="2">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="Q639" t="s" s="2">
         <v>37</v>
@@ -72031,7 +71996,7 @@
         <v>37</v>
       </c>
       <c r="U639" t="s" s="2">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="V639" t="s" s="2">
         <v>37</v>
@@ -72067,7 +72032,7 @@
         <v>37</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72084,13 +72049,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72116,16 +72081,16 @@
         <v>145</v>
       </c>
       <c r="M640" t="s" s="2">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="O640" t="s" s="2">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="P640" t="s" s="2">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>37</v>
@@ -72174,7 +72139,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72191,13 +72156,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72220,19 +72185,19 @@
         <v>45</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="O641" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="P641" t="s" s="2">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>37</v>
@@ -72281,7 +72246,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72298,13 +72263,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72330,14 +72295,14 @@
         <v>58</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>37</v>
@@ -72350,7 +72315,7 @@
         <v>37</v>
       </c>
       <c r="U642" t="s" s="2">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="V642" t="s" s="2">
         <v>37</v>
@@ -72386,7 +72351,7 @@
         <v>37</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72403,13 +72368,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72435,14 +72400,14 @@
         <v>732</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72491,7 +72456,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72508,13 +72473,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72540,13 +72505,13 @@
         <v>97</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="O644" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -72575,10 +72540,10 @@
         <v>123</v>
       </c>
       <c r="Z644" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="AA644" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="AB644" t="s" s="2">
         <v>37</v>
@@ -72596,7 +72561,7 @@
         <v>37</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>38</v>
@@ -72608,18 +72573,18 @@
         <v>37</v>
       </c>
       <c r="AK644" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72645,13 +72610,13 @@
         <v>151</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="O645" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72701,7 +72666,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72718,13 +72683,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -72821,13 +72786,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72926,13 +72891,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -73033,13 +72998,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73062,13 +73027,13 @@
         <v>37</v>
       </c>
       <c r="L649" t="s" s="2">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="M649" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="N649" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -73119,7 +73084,7 @@
         <v>37</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>38</v>
@@ -73136,13 +73101,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73168,13 +73133,13 @@
         <v>714</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="N650" t="s" s="2">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O650" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -73203,10 +73168,10 @@
         <v>109</v>
       </c>
       <c r="Z650" t="s" s="2">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="AA650" t="s" s="2">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AB650" t="s" s="2">
         <v>37</v>
@@ -73224,7 +73189,7 @@
         <v>37</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>38</v>
@@ -73236,18 +73201,18 @@
         <v>37</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73270,13 +73235,13 @@
         <v>45</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N651" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -73327,7 +73292,7 @@
         <v>37</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>38</v>
@@ -73344,13 +73309,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73376,10 +73341,10 @@
         <v>714</v>
       </c>
       <c r="M652" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="N652" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
@@ -73409,10 +73374,10 @@
         <v>123</v>
       </c>
       <c r="Z652" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AA652" t="s" s="2">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="AB652" t="s" s="2">
         <v>37</v>
@@ -73430,7 +73395,7 @@
         <v>37</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>38</v>
@@ -73442,18 +73407,18 @@
         <v>37</v>
       </c>
       <c r="AK652" t="s" s="2">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73479,16 +73444,16 @@
         <v>714</v>
       </c>
       <c r="M653" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="N653" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="O653" t="s" s="2">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="P653" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="Q653" t="s" s="2">
         <v>37</v>
@@ -73516,10 +73481,10 @@
         <v>123</v>
       </c>
       <c r="Z653" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AA653" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="AB653" t="s" s="2">
         <v>37</v>
@@ -73537,7 +73502,7 @@
         <v>37</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>38</v>
@@ -73549,18 +73514,18 @@
         <v>37</v>
       </c>
       <c r="AK653" t="s" s="2">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73583,13 +73548,13 @@
         <v>37</v>
       </c>
       <c r="L654" t="s" s="2">
-        <v>722</v>
+        <v>1034</v>
       </c>
       <c r="M654" t="s" s="2">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N654" t="s" s="2">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
@@ -73640,7 +73605,7 @@
         <v>37</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>38</v>
@@ -73657,13 +73622,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -73686,16 +73651,16 @@
         <v>37</v>
       </c>
       <c r="L655" t="s" s="2">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="M655" t="s" s="2">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="N655" t="s" s="2">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="O655" t="s" s="2">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -73745,7 +73710,7 @@
         <v>37</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>38</v>
@@ -73762,7 +73727,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>645</v>
@@ -73865,7 +73830,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>647</v>
@@ -73970,7 +73935,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>648</v>
@@ -74073,7 +74038,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>649</v>
@@ -74176,7 +74141,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>650</v>
@@ -74281,7 +74246,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>651</v>
@@ -74386,7 +74351,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>652</v>
@@ -74491,7 +74456,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>653</v>
@@ -74596,7 +74561,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>654</v>
@@ -74701,7 +74666,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>655</v>
@@ -74806,7 +74771,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>656</v>
@@ -74911,7 +74876,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>657</v>
@@ -75016,7 +74981,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>658</v>
@@ -75121,7 +75086,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>659</v>
@@ -75226,7 +75191,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>666</v>
@@ -75236,7 +75201,7 @@
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
@@ -75255,13 +75220,13 @@
         <v>37</v>
       </c>
       <c r="L670" t="s" s="2">
-        <v>1102</v>
+        <v>187</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O670" t="s" s="2">
         <v>668</v>
@@ -75331,7 +75296,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>671</v>
@@ -75345,7 +75310,7 @@
       </c>
       <c r="F671" s="2"/>
       <c r="G671" t="s" s="2">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="H671" t="s" s="2">
         <v>39</v>
@@ -75432,7 +75397,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>673</v>
@@ -75466,7 +75431,7 @@
         <v>675</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="N672" t="s" s="2">
         <v>677</v>
@@ -75532,18 +75497,18 @@
         <v>548</v>
       </c>
       <c r="AK672" t="s" s="2">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -75640,13 +75605,13 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -75743,13 +75708,13 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -75789,7 +75754,7 @@
       </c>
       <c r="R675" s="2"/>
       <c r="S675" t="s" s="2">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="T675" t="s" s="2">
         <v>37</v>
@@ -75848,13 +75813,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -75912,17 +75877,15 @@
       <c r="Y676" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Z676" t="s" s="2">
-        <v>1115</v>
-      </c>
+      <c r="Z676" s="2"/>
       <c r="AA676" t="s" s="2">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="AB676" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AC676" t="s" s="2">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="AD676" s="2"/>
       <c r="AE676" t="s" s="2">
@@ -75949,16 +75912,16 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D677" t="s" s="2">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="E677" t="s" s="2">
         <v>37</v>
@@ -76054,16 +76017,16 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C678" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D678" t="s" s="2">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E678" t="s" s="2">
         <v>37</v>
@@ -76085,13 +76048,13 @@
         <v>37</v>
       </c>
       <c r="L678" t="s" s="2">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="M678" t="s" s="2">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="N678" t="s" s="2">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="O678" s="2"/>
       <c r="P678" s="2"/>
@@ -76159,16 +76122,16 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C679" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D679" t="s" s="2">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E679" t="s" s="2">
         <v>37</v>
@@ -76178,10 +76141,10 @@
         <v>38</v>
       </c>
       <c r="H679" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I679" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J679" t="s" s="2">
         <v>37</v>
@@ -76190,13 +76153,13 @@
         <v>37</v>
       </c>
       <c r="L679" t="s" s="2">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="M679" t="s" s="2">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="N679" t="s" s="2">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" s="2"/>
@@ -76264,17 +76227,15 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="D680" t="s" s="2">
-        <v>821</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
         <v>37</v>
       </c>
@@ -76295,13 +76256,13 @@
         <v>37</v>
       </c>
       <c r="L680" t="s" s="2">
-        <v>822</v>
+        <v>58</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>1131</v>
+        <v>59</v>
       </c>
       <c r="N680" t="s" s="2">
-        <v>824</v>
+        <v>60</v>
       </c>
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
@@ -76352,34 +76313,32 @@
         <v>37</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>672</v>
+        <v>61</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI680" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AJ680" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK680" t="s" s="2">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="D681" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
         <v>37</v>
       </c>
@@ -76388,10 +76347,10 @@
         <v>38</v>
       </c>
       <c r="H681" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I681" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J681" t="s" s="2">
         <v>37</v>
@@ -76400,13 +76359,13 @@
         <v>37</v>
       </c>
       <c r="L681" t="s" s="2">
-        <v>1133</v>
+        <v>64</v>
       </c>
       <c r="M681" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="N681" t="s" s="2">
-        <v>1134</v>
+        <v>551</v>
       </c>
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
@@ -76445,19 +76404,19 @@
         <v>37</v>
       </c>
       <c r="AC681" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AD681" t="s" s="2">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="AE681" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF681" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>672</v>
+        <v>71</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>38</v>
@@ -76474,13 +76433,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -76488,7 +76447,7 @@
       </c>
       <c r="F682" s="2"/>
       <c r="G682" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H682" t="s" s="2">
         <v>44</v>
@@ -76503,22 +76462,24 @@
         <v>37</v>
       </c>
       <c r="L682" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="M682" t="s" s="2">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="N682" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O682" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="O682" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P682" s="2"/>
       <c r="Q682" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R682" s="2"/>
       <c r="S682" t="s" s="2">
-        <v>37</v>
+        <v>1127</v>
       </c>
       <c r="T682" t="s" s="2">
         <v>37</v>
@@ -76560,10 +76521,10 @@
         <v>37</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>61</v>
+        <v>552</v>
       </c>
       <c r="AH682" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AI682" t="s" s="2">
         <v>44</v>
@@ -76577,10 +76538,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="C683" t="s" s="2">
         <v>1109</v>
@@ -76591,10 +76552,10 @@
       </c>
       <c r="F683" s="2"/>
       <c r="G683" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H683" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I683" t="s" s="2">
         <v>37</v>
@@ -76606,13 +76567,13 @@
         <v>37</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>64</v>
+        <v>1129</v>
       </c>
       <c r="M683" t="s" s="2">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="N683" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="O683" s="2"/>
       <c r="P683" s="2"/>
@@ -76651,44 +76612,44 @@
         <v>37</v>
       </c>
       <c r="AC683" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AD683" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>1111</v>
+      </c>
+      <c r="AD683" s="2"/>
       <c r="AE683" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF683" t="s" s="2">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>71</v>
+        <v>556</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI683" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AJ683" t="s" s="2">
-        <v>548</v>
+        <v>37</v>
       </c>
       <c r="AK683" t="s" s="2">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="D684" s="2"/>
+        <v>1109</v>
+      </c>
+      <c r="D684" t="s" s="2">
+        <v>1131</v>
+      </c>
       <c r="E684" t="s" s="2">
         <v>37</v>
       </c>
@@ -76709,24 +76670,22 @@
         <v>37</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>85</v>
+        <v>1132</v>
       </c>
       <c r="M684" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="N684" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O684" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O684" s="2"/>
       <c r="P684" s="2"/>
       <c r="Q684" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R684" s="2"/>
       <c r="S684" t="s" s="2">
-        <v>540</v>
+        <v>37</v>
       </c>
       <c r="T684" t="s" s="2">
         <v>37</v>
@@ -76768,10 +76727,10 @@
         <v>37</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AH684" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AI684" t="s" s="2">
         <v>44</v>
@@ -76780,20 +76739,22 @@
         <v>37</v>
       </c>
       <c r="AK684" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1114</v>
-      </c>
-      <c r="D685" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D685" t="s" s="2">
+        <v>819</v>
+      </c>
       <c r="E685" t="s" s="2">
         <v>37</v>
       </c>
@@ -76814,13 +76775,13 @@
         <v>37</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>877</v>
+        <v>820</v>
       </c>
       <c r="M685" t="s" s="2">
-        <v>558</v>
+        <v>1134</v>
       </c>
       <c r="N685" t="s" s="2">
-        <v>559</v>
+        <v>822</v>
       </c>
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
@@ -76871,24 +76832,24 @@
         <v>37</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>556</v>
+        <v>672</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI685" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AJ685" t="s" s="2">
-        <v>548</v>
+        <v>37</v>
       </c>
       <c r="AK685" t="s" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>679</v>
@@ -76991,7 +76952,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>681</v>
@@ -77092,7 +77053,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>685</v>
@@ -77123,10 +77084,10 @@
         <v>37</v>
       </c>
       <c r="L688" t="s" s="2">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="N688" t="s" s="2">
         <v>689</v>
@@ -77197,7 +77158,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>690</v>
@@ -77231,7 +77192,7 @@
         <v>692</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="N689" t="s" s="2">
         <v>689</v>
@@ -77302,7 +77263,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>694</v>
@@ -77334,7 +77295,7 @@
         <v>119</v>
       </c>
       <c r="M690" t="s" s="2">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="N690" t="s" s="2">
         <v>696</v>
@@ -77351,7 +77312,7 @@
         <v>37</v>
       </c>
       <c r="T690" t="s" s="2">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="U690" t="s" s="2">
         <v>37</v>
@@ -77407,7 +77368,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>700</v>
@@ -77439,7 +77400,7 @@
         <v>119</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N691" t="s" s="2">
         <v>702</v>
@@ -77514,7 +77475,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>708</v>
@@ -77546,7 +77507,7 @@
         <v>58</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="N692" t="s" s="2">
         <v>710</v>
@@ -77619,7 +77580,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>713</v>
@@ -77651,7 +77612,7 @@
         <v>714</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="N693" t="s" s="2">
         <v>716</v>
@@ -77670,7 +77631,7 @@
         <v>37</v>
       </c>
       <c r="T693" t="s" s="2">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="U693" t="s" s="2">
         <v>37</v>
@@ -77724,7 +77685,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>721</v>
@@ -77756,7 +77717,7 @@
         <v>722</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1147</v>
+        <v>1035</v>
       </c>
       <c r="N694" t="s" s="2">
         <v>724</v>
@@ -77831,7 +77792,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>727</v>
@@ -77934,7 +77895,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>731</v>
@@ -77966,7 +77927,7 @@
         <v>732</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="N696" t="s" s="2">
         <v>734</v>
@@ -78041,7 +78002,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>737</v>
@@ -78070,10 +78031,10 @@
         <v>45</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="N697" t="s" s="2">
         <v>741</v>
@@ -78143,18 +78104,18 @@
         <v>37</v>
       </c>
       <c r="AK697" t="s" s="2">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78251,13 +78212,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78356,16 +78317,16 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="D700" t="s" s="2">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E700" t="s" s="2">
         <v>37</v>
@@ -78387,13 +78348,13 @@
         <v>37</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="N700" t="s" s="2">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
@@ -78456,18 +78417,18 @@
         <v>37</v>
       </c>
       <c r="AK700" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -78564,13 +78525,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -78667,13 +78628,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -78713,7 +78674,7 @@
       </c>
       <c r="R703" s="2"/>
       <c r="S703" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="T703" t="s" s="2">
         <v>37</v>
@@ -78772,13 +78733,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -78801,7 +78762,7 @@
         <v>37</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="M704" t="s" s="2">
         <v>558</v>
@@ -78846,7 +78807,7 @@
         <v>37</v>
       </c>
       <c r="AC704" t="s" s="2">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="AD704" s="2"/>
       <c r="AE704" t="s" s="2">
@@ -78873,16 +78834,16 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D705" t="s" s="2">
-        <v>1170</v>
+        <v>1131</v>
       </c>
       <c r="E705" t="s" s="2">
         <v>37</v>
@@ -78904,7 +78865,7 @@
         <v>37</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>1171</v>
+        <v>1132</v>
       </c>
       <c r="M705" t="s" s="2">
         <v>558</v>
@@ -78978,13 +78939,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -79010,13 +78971,13 @@
         <v>58</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="O706" t="s" s="2">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="P706" s="2"/>
       <c r="Q706" t="s" s="2">
@@ -79066,7 +79027,7 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>38</v>
@@ -79075,7 +79036,7 @@
         <v>44</v>
       </c>
       <c r="AJ706" t="s" s="2">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AK706" t="s" s="2">
         <v>56</v>
@@ -79083,13 +79044,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79115,13 +79076,13 @@
         <v>85</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="O707" t="s" s="2">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="P707" s="2"/>
       <c r="Q707" t="s" s="2">
@@ -79150,10 +79111,10 @@
         <v>101</v>
       </c>
       <c r="Z707" t="s" s="2">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="AA707" t="s" s="2">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="AB707" t="s" s="2">
         <v>37</v>
@@ -79171,7 +79132,7 @@
         <v>37</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>38</v>
@@ -79188,13 +79149,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79220,13 +79181,13 @@
         <v>128</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="O708" t="s" s="2">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
@@ -79276,7 +79237,7 @@
         <v>37</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>38</v>
@@ -79293,13 +79254,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -79325,13 +79286,13 @@
         <v>58</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79381,7 +79342,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>
@@ -79398,7 +79359,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>744</v>
@@ -79505,7 +79466,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>751</v>
@@ -79537,7 +79498,7 @@
         <v>752</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="N711" t="s" s="2">
         <v>754</v>
@@ -79608,7 +79569,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>755</v>
@@ -79640,7 +79601,7 @@
         <v>151</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="N712" t="s" s="2">
         <v>757</v>
@@ -79713,7 +79674,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>760</v>
@@ -79816,7 +79777,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>761</v>
@@ -79921,7 +79882,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>762</v>
@@ -80028,7 +79989,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>763</v>
@@ -80135,7 +80096,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>770</v>
@@ -80244,7 +80205,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>778</v>
@@ -80349,7 +80310,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>782</v>
@@ -80378,10 +80339,10 @@
         <v>37</v>
       </c>
       <c r="L719" t="s" s="2">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="N719" t="s" s="2">
         <v>785</v>
@@ -80452,7 +80413,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>786</v>
@@ -80559,7 +80520,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>544</v>
@@ -80591,10 +80552,10 @@
         <v>40</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -80662,7 +80623,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>549</v>
@@ -80765,7 +80726,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>550</v>
@@ -80868,7 +80829,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>552</v>
@@ -80914,7 +80875,7 @@
       </c>
       <c r="R724" s="2"/>
       <c r="S724" t="s" s="2">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="T724" t="s" s="2">
         <v>37</v>
@@ -80973,7 +80934,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>556</v>

--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24052" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24051" uniqueCount="1176">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:54:45+00:00</t>
+    <t>2023-07-26T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2016,7 +2016,7 @@
     <t>PDSm Folder Comprehensive</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « Comprehensive Folder  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le classeur.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « Comprehensive Folder » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le classeur.</t>
   </si>
   <si>
     <t>List</t>
@@ -2117,14 +2117,10 @@
 </t>
   </si>
   <si>
-    <t>Représente les codes spécifiant le type d’activité de l’événement clinique ayant abouti au regroupement de la fiche d’un document dans ce classeur.</t>
+    <t>Représente les codes spécifiant le type d’activité de l’événement clinique ayant abouti au regroupement de la fiche d’un document dans ce classeur. Le jeu de valeurs est à définir par le système cible.</t>
   </si>
   <si>
     <t>Expresses contentType of submissionSet or the codeList of a Folder. Usually expressed in LOINC or SNOMED.</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs est à définir par le système cible.
-There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -2701,16 +2697,10 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t>Référence vers le patient concerné par le document.</t>
+    <t>Référence vers le patient concerné par le document. Cette même ressource est référencée depuis context.sourcePatientInfo.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
-Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
   </si>
   <si>
     <t>DocumentReference.date</t>
@@ -3463,7 +3453,7 @@
     <t>PDSm SubmissionSet Comprehensive</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « ComprehensiveSubmissionSet  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « ComprehensiveSubmissionSet » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Comprehensive.SubmissionSet</t>
@@ -4659,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="104">
@@ -4667,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="105">
@@ -4683,7 +4673,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="107">
@@ -4691,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="108">
@@ -4737,7 +4727,7 @@
         <v>21</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="114">
@@ -4781,7 +4771,7 @@
         <v>31</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="120">
@@ -4813,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="124">
@@ -4821,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125">
@@ -4837,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="127">
@@ -4845,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="128">
@@ -4891,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="134">
@@ -4935,7 +4925,7 @@
         <v>31</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="140">
@@ -4967,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="144">
@@ -4975,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="145">
@@ -4991,7 +4981,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="147">
@@ -4999,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="148">
@@ -5045,7 +5035,7 @@
         <v>21</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="154">
@@ -5089,7 +5079,7 @@
         <v>31</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="160">
@@ -5121,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="164">
@@ -5129,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="165">
@@ -5145,7 +5135,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="167">
@@ -5153,7 +5143,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="168">
@@ -5199,7 +5189,7 @@
         <v>21</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="174">
@@ -5267,7 +5257,7 @@
         <v>546</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="183">
@@ -56780,9 +56770,7 @@
       <c r="N494" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="O494" t="s" s="2">
-        <v>678</v>
-      </c>
+      <c r="O494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" t="s" s="2">
         <v>37</v>
@@ -56851,10 +56839,10 @@
         <v>640</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -56934,7 +56922,7 @@
         <v>37</v>
       </c>
       <c r="AG495" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH495" t="s" s="2">
         <v>38</v>
@@ -56954,10 +56942,10 @@
         <v>640</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -56983,10 +56971,10 @@
         <v>128</v>
       </c>
       <c r="M496" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N496" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="N496" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="O496" s="2"/>
       <c r="P496" s="2"/>
@@ -57025,7 +57013,7 @@
         <v>37</v>
       </c>
       <c r="AC496" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AD496" s="2"/>
       <c r="AE496" t="s" s="2">
@@ -57035,7 +57023,7 @@
         <v>70</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>38</v>
@@ -57055,13 +57043,13 @@
         <v>640</v>
       </c>
       <c r="B497" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C497" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="D497" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="C497" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="D497" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="E497" t="s" s="2">
         <v>37</v>
@@ -57083,13 +57071,13 @@
         <v>37</v>
       </c>
       <c r="L497" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M497" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M497" t="s" s="2">
+      <c r="N497" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="N497" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
@@ -57140,7 +57128,7 @@
         <v>37</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>38</v>
@@ -57160,13 +57148,13 @@
         <v>640</v>
       </c>
       <c r="B498" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C498" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="D498" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="C498" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="D498" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="E498" t="s" s="2">
         <v>37</v>
@@ -57188,13 +57176,13 @@
         <v>37</v>
       </c>
       <c r="L498" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M498" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="M498" t="s" s="2">
-        <v>693</v>
-      </c>
       <c r="N498" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O498" s="2"/>
       <c r="P498" s="2"/>
@@ -57245,7 +57233,7 @@
         <v>37</v>
       </c>
       <c r="AG498" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH498" t="s" s="2">
         <v>38</v>
@@ -57265,10 +57253,10 @@
         <v>640</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -57294,13 +57282,13 @@
         <v>119</v>
       </c>
       <c r="M499" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="N499" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="N499" t="s" s="2">
+      <c r="O499" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="O499" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="P499" s="2"/>
       <c r="Q499" t="s" s="2">
@@ -57329,11 +57317,11 @@
         <v>137</v>
       </c>
       <c r="Z499" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AA499" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AA499" t="s" s="2">
-        <v>699</v>
-      </c>
       <c r="AB499" t="s" s="2">
         <v>37</v>
       </c>
@@ -57350,7 +57338,7 @@
         <v>37</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>44</v>
@@ -57370,10 +57358,10 @@
         <v>640</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -57399,16 +57387,16 @@
         <v>119</v>
       </c>
       <c r="M500" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N500" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="N500" t="s" s="2">
+      <c r="O500" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="O500" t="s" s="2">
+      <c r="P500" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="P500" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="Q500" t="s" s="2">
         <v>37</v>
@@ -57418,7 +57406,7 @@
         <v>37</v>
       </c>
       <c r="T500" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U500" t="s" s="2">
         <v>37</v>
@@ -57436,11 +57424,11 @@
         <v>137</v>
       </c>
       <c r="Z500" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AA500" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AA500" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="AB500" t="s" s="2">
         <v>37</v>
       </c>
@@ -57457,7 +57445,7 @@
         <v>37</v>
       </c>
       <c r="AG500" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AH500" t="s" s="2">
         <v>44</v>
@@ -57477,10 +57465,10 @@
         <v>640</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -57506,14 +57494,14 @@
         <v>58</v>
       </c>
       <c r="M501" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N501" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="N501" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="O501" s="2"/>
       <c r="P501" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q501" t="s" s="2">
         <v>37</v>
@@ -57526,7 +57514,7 @@
         <v>37</v>
       </c>
       <c r="U501" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="V501" t="s" s="2">
         <v>37</v>
@@ -57562,7 +57550,7 @@
         <v>37</v>
       </c>
       <c r="AG501" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AH501" t="s" s="2">
         <v>38</v>
@@ -57582,10 +57570,10 @@
         <v>640</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -57608,19 +57596,19 @@
         <v>45</v>
       </c>
       <c r="L502" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M502" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M502" t="s" s="2">
+      <c r="N502" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="N502" t="s" s="2">
+      <c r="O502" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="O502" t="s" s="2">
+      <c r="P502" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="P502" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="Q502" t="s" s="2">
         <v>37</v>
@@ -57630,7 +57618,7 @@
         <v>37</v>
       </c>
       <c r="T502" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U502" t="s" s="2">
         <v>37</v>
@@ -57649,7 +57637,7 @@
       </c>
       <c r="Z502" s="2"/>
       <c r="AA502" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB502" t="s" s="2">
         <v>37</v>
@@ -57667,7 +57655,7 @@
         <v>37</v>
       </c>
       <c r="AG502" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AH502" t="s" s="2">
         <v>38</v>
@@ -57687,10 +57675,10 @@
         <v>640</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -57713,19 +57701,19 @@
         <v>45</v>
       </c>
       <c r="L503" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M503" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="M503" t="s" s="2">
+      <c r="N503" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="N503" t="s" s="2">
+      <c r="O503" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="O503" t="s" s="2">
+      <c r="P503" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="P503" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="Q503" t="s" s="2">
         <v>37</v>
@@ -57774,7 +57762,7 @@
         <v>37</v>
       </c>
       <c r="AG503" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AH503" t="s" s="2">
         <v>38</v>
@@ -57794,10 +57782,10 @@
         <v>640</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -57820,13 +57808,13 @@
         <v>37</v>
       </c>
       <c r="L504" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M504" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="M504" t="s" s="2">
+      <c r="N504" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="N504" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
@@ -57877,7 +57865,7 @@
         <v>37</v>
       </c>
       <c r="AG504" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AH504" t="s" s="2">
         <v>38</v>
@@ -57897,10 +57885,10 @@
         <v>640</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -57923,19 +57911,19 @@
         <v>45</v>
       </c>
       <c r="L505" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M505" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M505" t="s" s="2">
+      <c r="N505" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="N505" t="s" s="2">
+      <c r="O505" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="O505" t="s" s="2">
+      <c r="P505" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="P505" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="Q505" t="s" s="2">
         <v>37</v>
@@ -57984,7 +57972,7 @@
         <v>37</v>
       </c>
       <c r="AG505" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AH505" t="s" s="2">
         <v>38</v>
@@ -58004,14 +57992,14 @@
         <v>640</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F506" s="2"/>
       <c r="G506" t="s" s="2">
@@ -58030,19 +58018,19 @@
         <v>45</v>
       </c>
       <c r="L506" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M506" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M506" t="s" s="2">
+      <c r="N506" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="N506" t="s" s="2">
+      <c r="O506" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="O506" t="s" s="2">
+      <c r="P506" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="P506" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="Q506" t="s" s="2">
         <v>37</v>
@@ -58091,7 +58079,7 @@
         <v>37</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>38</v>
@@ -58111,10 +58099,10 @@
         <v>640</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -58137,19 +58125,19 @@
         <v>37</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M507" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="N507" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="N507" t="s" s="2">
+      <c r="O507" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="O507" t="s" s="2">
+      <c r="P507" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="P507" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="Q507" t="s" s="2">
         <v>37</v>
@@ -58177,11 +58165,11 @@
         <v>123</v>
       </c>
       <c r="Z507" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AA507" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="AA507" t="s" s="2">
-        <v>750</v>
-      </c>
       <c r="AB507" t="s" s="2">
         <v>37</v>
       </c>
@@ -58198,7 +58186,7 @@
         <v>37</v>
       </c>
       <c r="AG507" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AH507" t="s" s="2">
         <v>38</v>
@@ -58218,10 +58206,10 @@
         <v>640</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -58244,13 +58232,13 @@
         <v>37</v>
       </c>
       <c r="L508" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M508" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="M508" t="s" s="2">
+      <c r="N508" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="N508" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="O508" s="2"/>
       <c r="P508" s="2"/>
@@ -58301,7 +58289,7 @@
         <v>37</v>
       </c>
       <c r="AG508" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AH508" t="s" s="2">
         <v>38</v>
@@ -58321,10 +58309,10 @@
         <v>640</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -58350,13 +58338,13 @@
         <v>151</v>
       </c>
       <c r="M509" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="N509" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="N509" t="s" s="2">
+      <c r="O509" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="O509" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="P509" s="2"/>
       <c r="Q509" t="s" s="2">
@@ -58406,7 +58394,7 @@
         <v>37</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>38</v>
@@ -58415,7 +58403,7 @@
         <v>39</v>
       </c>
       <c r="AJ509" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AK509" t="s" s="2">
         <v>56</v>
@@ -58426,10 +58414,10 @@
         <v>640</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -58529,10 +58517,10 @@
         <v>640</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -58634,10 +58622,10 @@
         <v>640</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -58741,10 +58729,10 @@
         <v>640</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
@@ -58767,19 +58755,19 @@
         <v>37</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M513" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N513" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="N513" t="s" s="2">
+      <c r="O513" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="O513" t="s" s="2">
+      <c r="P513" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="P513" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="Q513" t="s" s="2">
         <v>37</v>
@@ -58807,11 +58795,11 @@
         <v>109</v>
       </c>
       <c r="Z513" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AA513" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="AA513" t="s" s="2">
-        <v>769</v>
-      </c>
       <c r="AB513" t="s" s="2">
         <v>37</v>
       </c>
@@ -58828,7 +58816,7 @@
         <v>37</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>38</v>
@@ -58848,10 +58836,10 @@
         <v>640</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -58874,79 +58862,79 @@
         <v>37</v>
       </c>
       <c r="L514" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M514" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="M514" t="s" s="2">
+      <c r="N514" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="N514" t="s" s="2">
+      <c r="O514" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="O514" t="s" s="2">
+      <c r="P514" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="P514" t="s" s="2">
+      <c r="Q514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R514" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="Q514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R514" t="s" s="2">
+      <c r="S514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG514" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AH514" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI514" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ514" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="S514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG514" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="AH514" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI514" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ514" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="AK514" t="s" s="2">
         <v>56</v>
@@ -58957,10 +58945,10 @@
         <v>640</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -58983,17 +58971,17 @@
         <v>37</v>
       </c>
       <c r="L515" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M515" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N515" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="N515" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="O515" s="2"/>
       <c r="P515" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q515" t="s" s="2">
         <v>37</v>
@@ -59042,7 +59030,7 @@
         <v>37</v>
       </c>
       <c r="AG515" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AH515" t="s" s="2">
         <v>38</v>
@@ -59062,10 +59050,10 @@
         <v>640</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -59088,13 +59076,13 @@
         <v>37</v>
       </c>
       <c r="L516" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="M516" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M516" t="s" s="2">
+      <c r="N516" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N516" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O516" s="2"/>
       <c r="P516" s="2"/>
@@ -59145,7 +59133,7 @@
         <v>37</v>
       </c>
       <c r="AG516" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AH516" t="s" s="2">
         <v>44</v>
@@ -59165,10 +59153,10 @@
         <v>640</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -59191,19 +59179,19 @@
         <v>37</v>
       </c>
       <c r="L517" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M517" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N517" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="N517" t="s" s="2">
+      <c r="O517" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="O517" t="s" s="2">
+      <c r="P517" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="P517" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="Q517" t="s" s="2">
         <v>37</v>
@@ -59231,11 +59219,11 @@
         <v>123</v>
       </c>
       <c r="Z517" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AA517" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="AA517" t="s" s="2">
-        <v>792</v>
-      </c>
       <c r="AB517" t="s" s="2">
         <v>37</v>
       </c>
@@ -59252,7 +59240,7 @@
         <v>37</v>
       </c>
       <c r="AG517" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH517" t="s" s="2">
         <v>38</v>
@@ -59261,7 +59249,7 @@
         <v>44</v>
       </c>
       <c r="AJ517" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AK517" t="s" s="2">
         <v>56</v>
@@ -59269,7 +59257,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>608</v>
@@ -59374,13 +59362,13 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -59479,13 +59467,13 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -59582,13 +59570,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -59685,13 +59673,13 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -59790,13 +59778,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -59822,7 +59810,7 @@
         <v>46</v>
       </c>
       <c r="M523" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N523" t="s" s="2">
         <v>75</v>
@@ -59895,13 +59883,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -60000,13 +59988,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -60105,13 +60093,13 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -60210,13 +60198,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -60315,13 +60303,13 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -60420,13 +60408,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -60525,13 +60513,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -60630,13 +60618,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -60735,17 +60723,17 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
@@ -60767,10 +60755,10 @@
         <v>187</v>
       </c>
       <c r="M532" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N532" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="N532" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="O532" t="s" s="2">
         <v>668</v>
@@ -60840,13 +60828,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60941,16 +60929,16 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B534" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="C534" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="D534" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="C534" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="D534" t="s" s="2">
-        <v>819</v>
       </c>
       <c r="E534" t="s" s="2">
         <v>37</v>
@@ -60972,13 +60960,13 @@
         <v>37</v>
       </c>
       <c r="L534" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="M534" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="M534" t="s" s="2">
+      <c r="N534" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="N534" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
@@ -61046,13 +61034,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -61132,7 +61120,7 @@
         <v>37</v>
       </c>
       <c r="AG535" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH535" t="s" s="2">
         <v>38</v>
@@ -61149,13 +61137,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -61178,19 +61166,19 @@
         <v>37</v>
       </c>
       <c r="L536" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M536" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="N536" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="O536" t="s" s="2">
         <v>825</v>
       </c>
-      <c r="N536" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O536" t="s" s="2">
+      <c r="P536" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="P536" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="Q536" t="s" s="2">
         <v>37</v>
@@ -61239,7 +61227,7 @@
         <v>37</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>38</v>
@@ -61256,13 +61244,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -61288,10 +61276,10 @@
         <v>128</v>
       </c>
       <c r="M537" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N537" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N537" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
@@ -61330,7 +61318,7 @@
         <v>37</v>
       </c>
       <c r="AC537" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AD537" s="2"/>
       <c r="AE537" t="s" s="2">
@@ -61340,7 +61328,7 @@
         <v>70</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>38</v>
@@ -61357,16 +61345,16 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E538" t="s" s="2">
         <v>37</v>
@@ -61388,13 +61376,13 @@
         <v>37</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O538" s="2"/>
       <c r="P538" s="2"/>
@@ -61445,7 +61433,7 @@
         <v>37</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>38</v>
@@ -61462,13 +61450,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -61494,13 +61482,13 @@
         <v>119</v>
       </c>
       <c r="M539" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="N539" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="N539" t="s" s="2">
+      <c r="O539" t="s" s="2">
         <v>835</v>
-      </c>
-      <c r="O539" t="s" s="2">
-        <v>836</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -61530,7 +61518,7 @@
       </c>
       <c r="Z539" s="2"/>
       <c r="AA539" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AB539" t="s" s="2">
         <v>37</v>
@@ -61548,7 +61536,7 @@
         <v>37</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>44</v>
@@ -61565,13 +61553,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -61597,13 +61585,13 @@
         <v>119</v>
       </c>
       <c r="M540" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N540" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="N540" t="s" s="2">
+      <c r="O540" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="O540" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="P540" s="2"/>
       <c r="Q540" t="s" s="2">
@@ -61632,11 +61620,11 @@
         <v>137</v>
       </c>
       <c r="Z540" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AA540" t="s" s="2">
         <v>842</v>
       </c>
-      <c r="AA540" t="s" s="2">
-        <v>843</v>
-      </c>
       <c r="AB540" t="s" s="2">
         <v>37</v>
       </c>
@@ -61653,7 +61641,7 @@
         <v>37</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>38</v>
@@ -61670,13 +61658,13 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -61699,16 +61687,16 @@
         <v>45</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M541" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="N541" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="N541" t="s" s="2">
+      <c r="O541" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="O541" t="s" s="2">
-        <v>847</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -61738,52 +61726,52 @@
       </c>
       <c r="Z541" s="2"/>
       <c r="AA541" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="AB541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG541" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="AH541" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI541" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK541" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="AB541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG541" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="AH541" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI541" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK541" t="s" s="2">
-        <v>849</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" t="s" s="2">
@@ -61802,16 +61790,16 @@
         <v>45</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M542" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N542" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="N542" t="s" s="2">
+      <c r="O542" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="O542" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61840,11 +61828,11 @@
         <v>123</v>
       </c>
       <c r="Z542" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AA542" t="s" s="2">
         <v>855</v>
       </c>
-      <c r="AA542" t="s" s="2">
-        <v>856</v>
-      </c>
       <c r="AB542" t="s" s="2">
         <v>37</v>
       </c>
@@ -61861,7 +61849,7 @@
         <v>37</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>38</v>
@@ -61873,18 +61861,18 @@
         <v>37</v>
       </c>
       <c r="AK542" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61907,13 +61895,13 @@
         <v>45</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M543" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="N543" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="N543" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -61964,7 +61952,7 @@
         <v>37</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>38</v>
@@ -61976,22 +61964,22 @@
         <v>37</v>
       </c>
       <c r="AK543" t="s" s="2">
-        <v>861</v>
+        <v>56</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -62013,13 +62001,13 @@
         <v>79</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="N544" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="O544" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="N544" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>866</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -62069,7 +62057,7 @@
         <v>37</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>38</v>
@@ -62086,13 +62074,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62115,16 +62103,16 @@
         <v>45</v>
       </c>
       <c r="L545" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="M545" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="N545" t="s" s="2">
         <v>868</v>
       </c>
-      <c r="M545" t="s" s="2">
+      <c r="O545" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="N545" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -62174,7 +62162,7 @@
         <v>37</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>38</v>
@@ -62191,13 +62179,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -62220,16 +62208,16 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="M546" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="N546" t="s" s="2">
         <v>873</v>
       </c>
-      <c r="M546" t="s" s="2">
+      <c r="O546" t="s" s="2">
         <v>874</v>
-      </c>
-      <c r="N546" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="O546" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -62279,7 +62267,7 @@
         <v>37</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>38</v>
@@ -62296,13 +62284,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -62325,16 +62313,16 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M547" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="N547" t="s" s="2">
         <v>878</v>
       </c>
-      <c r="M547" t="s" s="2">
+      <c r="O547" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="N547" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -62384,7 +62372,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62401,13 +62389,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -62433,13 +62421,13 @@
         <v>151</v>
       </c>
       <c r="M548" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N548" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="O548" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="N548" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -62489,7 +62477,7 @@
         <v>37</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>38</v>
@@ -62501,18 +62489,18 @@
         <v>37</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -62609,13 +62597,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62714,13 +62702,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62821,13 +62809,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62853,13 +62841,13 @@
         <v>119</v>
       </c>
       <c r="M552" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="N552" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="O552" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="N552" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="O552" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -62888,10 +62876,10 @@
         <v>137</v>
       </c>
       <c r="Z552" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AA552" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AB552" t="s" s="2">
         <v>37</v>
@@ -62909,7 +62897,7 @@
         <v>37</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>44</v>
@@ -62926,13 +62914,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62955,13 +62943,13 @@
         <v>45</v>
       </c>
       <c r="L553" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M553" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N553" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="M553" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="N553" t="s" s="2">
-        <v>899</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -63012,7 +63000,7 @@
         <v>37</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>44</v>
@@ -63024,18 +63012,18 @@
         <v>37</v>
       </c>
       <c r="AK553" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -63061,16 +63049,16 @@
         <v>58</v>
       </c>
       <c r="M554" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N554" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="O554" t="s" s="2">
         <v>902</v>
       </c>
-      <c r="N554" t="s" s="2">
+      <c r="P554" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="O554" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>37</v>
@@ -63119,7 +63107,7 @@
         <v>37</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>38</v>
@@ -63136,13 +63124,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -63165,19 +63153,19 @@
         <v>45</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M555" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="N555" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="O555" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="N555" t="s" s="2">
+      <c r="P555" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="O555" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="P555" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="Q555" t="s" s="2">
         <v>37</v>
@@ -63226,7 +63214,7 @@
         <v>37</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>38</v>
@@ -63238,18 +63226,18 @@
         <v>37</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -63275,10 +63263,10 @@
         <v>151</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -63329,7 +63317,7 @@
         <v>37</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>44</v>
@@ -63346,13 +63334,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -63449,13 +63437,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63554,13 +63542,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63661,13 +63649,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63690,13 +63678,13 @@
         <v>45</v>
       </c>
       <c r="L560" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="M560" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="N560" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="M560" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="N560" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -63747,7 +63735,7 @@
         <v>37</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>44</v>
@@ -63764,13 +63752,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63867,13 +63855,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -63972,13 +63960,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -64004,14 +63992,14 @@
         <v>119</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>37</v>
@@ -64024,7 +64012,7 @@
         <v>37</v>
       </c>
       <c r="U563" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="V563" t="s" s="2">
         <v>37</v>
@@ -64039,28 +64027,28 @@
         <v>137</v>
       </c>
       <c r="Z563" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="AA563" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="AB563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG563" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="AA563" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="AB563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG563" t="s" s="2">
-        <v>931</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>38</v>
@@ -64077,13 +64065,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64109,14 +64097,14 @@
         <v>119</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>37</v>
@@ -64129,7 +64117,7 @@
         <v>37</v>
       </c>
       <c r="U564" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="V564" t="s" s="2">
         <v>37</v>
@@ -64165,7 +64153,7 @@
         <v>37</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>38</v>
@@ -64182,13 +64170,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64211,19 +64199,19 @@
         <v>37</v>
       </c>
       <c r="L565" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M565" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="N565" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="M565" t="s" s="2">
+      <c r="O565" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="N565" t="s" s="2">
+      <c r="P565" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="O565" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="P565" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>37</v>
@@ -64272,7 +64260,7 @@
         <v>37</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>38</v>
@@ -64289,13 +64277,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64318,19 +64306,19 @@
         <v>45</v>
       </c>
       <c r="L566" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="M566" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="N566" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="M566" t="s" s="2">
+      <c r="O566" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="N566" t="s" s="2">
+      <c r="P566" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="O566" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="P566" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>37</v>
@@ -64343,66 +64331,66 @@
         <v>37</v>
       </c>
       <c r="U566" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="V566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG566" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="AH566" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI566" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK566" t="s" s="2">
         <v>951</v>
-      </c>
-      <c r="V566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG566" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="AH566" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI566" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK566" t="s" s="2">
-        <v>953</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -64428,16 +64416,16 @@
         <v>145</v>
       </c>
       <c r="M567" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N567" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="O567" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="N567" t="s" s="2">
+      <c r="P567" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="O567" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="P567" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>37</v>
@@ -64486,7 +64474,7 @@
         <v>37</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>38</v>
@@ -64503,13 +64491,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64532,19 +64520,19 @@
         <v>45</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="M568" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="N568" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="O568" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="N568" t="s" s="2">
+      <c r="P568" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="O568" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="P568" t="s" s="2">
-        <v>964</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>37</v>
@@ -64593,7 +64581,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64610,13 +64598,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64642,14 +64630,14 @@
         <v>58</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>37</v>
@@ -64662,7 +64650,7 @@
         <v>37</v>
       </c>
       <c r="U569" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="V569" t="s" s="2">
         <v>37</v>
@@ -64698,7 +64686,7 @@
         <v>37</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64715,13 +64703,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64744,17 +64732,17 @@
         <v>45</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>37</v>
@@ -64803,7 +64791,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64820,13 +64808,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64852,13 +64840,13 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="N571" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="O571" t="s" s="2">
         <v>978</v>
-      </c>
-      <c r="N571" t="s" s="2">
-        <v>979</v>
-      </c>
-      <c r="O571" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64887,51 +64875,51 @@
         <v>123</v>
       </c>
       <c r="Z571" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AA571" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="AB571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG571" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="AH571" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI571" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK571" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="AA571" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="AB571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG571" t="s" s="2">
-        <v>977</v>
-      </c>
-      <c r="AH571" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI571" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK571" t="s" s="2">
-        <v>983</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64957,13 +64945,13 @@
         <v>151</v>
       </c>
       <c r="M572" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="N572" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="O572" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N572" t="s" s="2">
-        <v>986</v>
-      </c>
-      <c r="O572" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -65013,7 +65001,7 @@
         <v>37</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>38</v>
@@ -65030,13 +65018,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -65133,13 +65121,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -65238,13 +65226,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -65345,13 +65333,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -65374,13 +65362,13 @@
         <v>37</v>
       </c>
       <c r="L576" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="M576" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="N576" t="s" s="2">
         <v>992</v>
-      </c>
-      <c r="M576" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="N576" t="s" s="2">
-        <v>994</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -65431,7 +65419,7 @@
         <v>37</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>38</v>
@@ -65448,13 +65436,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -65477,16 +65465,16 @@
         <v>37</v>
       </c>
       <c r="L577" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M577" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="N577" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="O577" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N577" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="O577" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -65515,10 +65503,10 @@
         <v>109</v>
       </c>
       <c r="Z577" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AA577" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AB577" t="s" s="2">
         <v>37</v>
@@ -65536,7 +65524,7 @@
         <v>37</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>38</v>
@@ -65548,18 +65536,18 @@
         <v>37</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65582,13 +65570,13 @@
         <v>45</v>
       </c>
       <c r="L578" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M578" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="N578" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="M578" t="s" s="2">
-        <v>1004</v>
-      </c>
-      <c r="N578" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -65639,7 +65627,7 @@
         <v>37</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>38</v>
@@ -65656,13 +65644,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65759,13 +65747,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65864,13 +65852,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65893,16 +65881,16 @@
         <v>45</v>
       </c>
       <c r="L581" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M581" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="N581" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="O581" t="s" s="2">
         <v>1009</v>
-      </c>
-      <c r="N581" t="s" s="2">
-        <v>1010</v>
-      </c>
-      <c r="O581" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
@@ -65952,7 +65940,7 @@
         <v>37</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>38</v>
@@ -65961,7 +65949,7 @@
         <v>44</v>
       </c>
       <c r="AJ581" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AK581" t="s" s="2">
         <v>56</v>
@@ -65969,13 +65957,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -65998,23 +65986,23 @@
         <v>45</v>
       </c>
       <c r="L582" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M582" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="N582" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="O582" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="N582" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="O582" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R582" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="S582" t="s" s="2">
         <v>37</v>
@@ -66059,7 +66047,7 @@
         <v>37</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>38</v>
@@ -66068,7 +66056,7 @@
         <v>44</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>56</v>
@@ -66076,13 +66064,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66105,13 +66093,13 @@
         <v>37</v>
       </c>
       <c r="L583" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -66141,51 +66129,51 @@
         <v>123</v>
       </c>
       <c r="Z583" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="AA583" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="AB583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG583" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="AH583" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI583" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK583" t="s" s="2">
         <v>1023</v>
-      </c>
-      <c r="AA583" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="AB583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG583" t="s" s="2">
-        <v>1020</v>
-      </c>
-      <c r="AH583" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI583" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>1025</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66208,19 +66196,19 @@
         <v>37</v>
       </c>
       <c r="L584" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M584" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="N584" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="O584" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="N584" t="s" s="2">
+      <c r="P584" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="O584" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="P584" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>37</v>
@@ -66248,10 +66236,10 @@
         <v>123</v>
       </c>
       <c r="Z584" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AA584" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AB584" t="s" s="2">
         <v>37</v>
@@ -66269,7 +66257,7 @@
         <v>37</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>38</v>
@@ -66281,18 +66269,18 @@
         <v>37</v>
       </c>
       <c r="AK584" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66315,13 +66303,13 @@
         <v>37</v>
       </c>
       <c r="L585" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="M585" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="N585" t="s" s="2">
         <v>1034</v>
-      </c>
-      <c r="M585" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="N585" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -66372,7 +66360,7 @@
         <v>37</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>38</v>
@@ -66389,13 +66377,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66492,13 +66480,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -66597,13 +66585,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -66629,13 +66617,13 @@
         <v>58</v>
       </c>
       <c r="M588" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="N588" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="O588" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="N588" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="O588" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -66685,7 +66673,7 @@
         <v>37</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>38</v>
@@ -66694,7 +66682,7 @@
         <v>44</v>
       </c>
       <c r="AJ588" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AK588" t="s" s="2">
         <v>56</v>
@@ -66702,13 +66690,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66734,13 +66722,13 @@
         <v>85</v>
       </c>
       <c r="M589" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="N589" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="O589" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="N589" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -66769,28 +66757,28 @@
         <v>101</v>
       </c>
       <c r="Z589" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="AA589" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="AB589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG589" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="AA589" t="s" s="2">
-        <v>1050</v>
-      </c>
-      <c r="AB589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG589" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>38</v>
@@ -66807,13 +66795,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66839,13 +66827,13 @@
         <v>128</v>
       </c>
       <c r="M590" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="N590" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="O590" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="N590" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="O590" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
@@ -66895,7 +66883,7 @@
         <v>37</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>38</v>
@@ -66912,13 +66900,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -66944,13 +66932,13 @@
         <v>58</v>
       </c>
       <c r="M591" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="N591" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="O591" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="N591" t="s" s="2">
-        <v>1059</v>
-      </c>
-      <c r="O591" t="s" s="2">
-        <v>1060</v>
       </c>
       <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
@@ -67000,7 +66988,7 @@
         <v>37</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>38</v>
@@ -67017,13 +67005,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67046,16 +67034,16 @@
         <v>37</v>
       </c>
       <c r="L592" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="M592" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="N592" t="s" s="2">
         <v>1063</v>
       </c>
-      <c r="M592" t="s" s="2">
+      <c r="O592" t="s" s="2">
         <v>1064</v>
-      </c>
-      <c r="N592" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O592" t="s" s="2">
-        <v>1066</v>
       </c>
       <c r="P592" s="2"/>
       <c r="Q592" t="s" s="2">
@@ -67105,7 +67093,7 @@
         <v>37</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>38</v>
@@ -67122,7 +67110,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>608</v>
@@ -67227,13 +67215,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -67332,13 +67320,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -67435,13 +67423,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -67538,13 +67526,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -67643,13 +67631,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -67675,7 +67663,7 @@
         <v>46</v>
       </c>
       <c r="M598" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N598" t="s" s="2">
         <v>75</v>
@@ -67748,13 +67736,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -67853,13 +67841,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -67958,13 +67946,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -68063,13 +68051,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -68168,13 +68156,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -68273,13 +68261,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -68378,13 +68366,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -68483,13 +68471,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68588,17 +68576,17 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
@@ -68620,10 +68608,10 @@
         <v>187</v>
       </c>
       <c r="M607" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N607" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="N607" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="O607" t="s" s="2">
         <v>668</v>
@@ -68693,13 +68681,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68728,7 +68716,7 @@
         <v>65</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O608" t="s" s="2">
         <v>67</v>
@@ -68798,13 +68786,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -68884,7 +68872,7 @@
         <v>37</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>38</v>
@@ -68901,13 +68889,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -68933,16 +68921,16 @@
         <v>128</v>
       </c>
       <c r="M610" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="N610" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="O610" t="s" s="2">
         <v>825</v>
       </c>
-      <c r="N610" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="O610" t="s" s="2">
+      <c r="P610" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="P610" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>37</v>
@@ -68991,7 +68979,7 @@
         <v>37</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>38</v>
@@ -69008,13 +68996,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69040,10 +69028,10 @@
         <v>128</v>
       </c>
       <c r="M611" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N611" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N611" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
@@ -69094,7 +69082,7 @@
         <v>37</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>38</v>
@@ -69111,13 +69099,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69143,13 +69131,13 @@
         <v>119</v>
       </c>
       <c r="M612" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="N612" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="N612" t="s" s="2">
+      <c r="O612" t="s" s="2">
         <v>835</v>
-      </c>
-      <c r="O612" t="s" s="2">
-        <v>836</v>
       </c>
       <c r="P612" s="2"/>
       <c r="Q612" t="s" s="2">
@@ -69160,7 +69148,7 @@
         <v>37</v>
       </c>
       <c r="T612" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="U612" t="s" s="2">
         <v>37</v>
@@ -69178,10 +69166,10 @@
         <v>137</v>
       </c>
       <c r="Z612" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AA612" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AB612" t="s" s="2">
         <v>37</v>
@@ -69199,7 +69187,7 @@
         <v>37</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>44</v>
@@ -69216,13 +69204,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -69248,13 +69236,13 @@
         <v>119</v>
       </c>
       <c r="M613" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N613" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="N613" t="s" s="2">
+      <c r="O613" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="O613" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="P613" s="2"/>
       <c r="Q613" t="s" s="2">
@@ -69283,11 +69271,11 @@
         <v>137</v>
       </c>
       <c r="Z613" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AA613" t="s" s="2">
         <v>842</v>
       </c>
-      <c r="AA613" t="s" s="2">
-        <v>843</v>
-      </c>
       <c r="AB613" t="s" s="2">
         <v>37</v>
       </c>
@@ -69304,7 +69292,7 @@
         <v>37</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>38</v>
@@ -69321,13 +69309,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69350,16 +69338,16 @@
         <v>45</v>
       </c>
       <c r="L614" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N614" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O614" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P614" s="2"/>
       <c r="Q614" t="s" s="2">
@@ -69388,55 +69376,55 @@
         <v>123</v>
       </c>
       <c r="Z614" t="s" s="2">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AA614" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="AB614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG614" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="AH614" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI614" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK614" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="AB614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG614" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="AH614" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI614" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK614" t="s" s="2">
-        <v>849</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F615" s="2"/>
       <c r="G615" t="s" s="2">
@@ -69455,16 +69443,16 @@
         <v>45</v>
       </c>
       <c r="L615" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M615" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N615" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="N615" t="s" s="2">
+      <c r="O615" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="O615" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69493,11 +69481,11 @@
         <v>123</v>
       </c>
       <c r="Z615" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AA615" t="s" s="2">
         <v>855</v>
       </c>
-      <c r="AA615" t="s" s="2">
-        <v>856</v>
-      </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
       </c>
@@ -69514,7 +69502,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>38</v>
@@ -69526,18 +69514,18 @@
         <v>37</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69560,13 +69548,13 @@
         <v>45</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69617,7 +69605,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>38</v>
@@ -69634,17 +69622,17 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
@@ -69666,13 +69654,13 @@
         <v>79</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="N617" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="O617" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="N617" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="O617" t="s" s="2">
-        <v>866</v>
       </c>
       <c r="P617" s="2"/>
       <c r="Q617" t="s" s="2">
@@ -69722,7 +69710,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69739,13 +69727,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69768,16 +69756,16 @@
         <v>45</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="N618" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="O618" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="N618" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="O618" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -69827,7 +69815,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69844,13 +69832,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69876,13 +69864,13 @@
         <v>557</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="O619" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
@@ -69932,7 +69920,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>38</v>
@@ -69949,13 +69937,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -69978,16 +69966,16 @@
         <v>37</v>
       </c>
       <c r="L620" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M620" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="N620" t="s" s="2">
         <v>878</v>
       </c>
-      <c r="M620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="N620" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="O620" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -70037,7 +70025,7 @@
         <v>37</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>38</v>
@@ -70054,13 +70042,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70086,13 +70074,13 @@
         <v>151</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -70142,7 +70130,7 @@
         <v>37</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>38</v>
@@ -70159,13 +70147,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70262,13 +70250,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70367,13 +70355,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70474,13 +70462,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70506,13 +70494,13 @@
         <v>119</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="O625" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -70541,10 +70529,10 @@
         <v>137</v>
       </c>
       <c r="Z625" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AA625" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AB625" t="s" s="2">
         <v>37</v>
@@ -70562,7 +70550,7 @@
         <v>37</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>44</v>
@@ -70579,13 +70567,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70608,13 +70596,13 @@
         <v>45</v>
       </c>
       <c r="L626" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M626" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="N626" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="M626" t="s" s="2">
-        <v>1086</v>
-      </c>
-      <c r="N626" t="s" s="2">
-        <v>899</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -70665,7 +70653,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>44</v>
@@ -70682,13 +70670,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70714,16 +70702,16 @@
         <v>58</v>
       </c>
       <c r="M627" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N627" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="O627" t="s" s="2">
         <v>902</v>
       </c>
-      <c r="N627" t="s" s="2">
+      <c r="P627" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="O627" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="P627" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70772,7 +70760,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70789,13 +70777,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70818,19 +70806,19 @@
         <v>45</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M628" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="N628" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="O628" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="N628" t="s" s="2">
+      <c r="P628" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="O628" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70879,7 +70867,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70891,18 +70879,18 @@
         <v>37</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70928,10 +70916,10 @@
         <v>151</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
@@ -70982,7 +70970,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>44</v>
@@ -70999,13 +70987,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71102,13 +71090,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71207,13 +71195,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71314,13 +71302,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71343,13 +71331,13 @@
         <v>45</v>
       </c>
       <c r="L633" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="M633" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="N633" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="M633" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="N633" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -71400,7 +71388,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>44</v>
@@ -71417,13 +71405,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71520,13 +71508,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71625,13 +71613,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71657,14 +71645,14 @@
         <v>119</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>37</v>
@@ -71677,7 +71665,7 @@
         <v>37</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>37</v>
@@ -71692,28 +71680,28 @@
         <v>137</v>
       </c>
       <c r="Z636" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="AA636" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="AB636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG636" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="AA636" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="AB636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG636" t="s" s="2">
-        <v>931</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>38</v>
@@ -71730,13 +71718,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71762,14 +71750,14 @@
         <v>119</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>37</v>
@@ -71782,7 +71770,7 @@
         <v>37</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>37</v>
@@ -71818,7 +71806,7 @@
         <v>37</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>38</v>
@@ -71835,13 +71823,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71864,19 +71852,19 @@
         <v>37</v>
       </c>
       <c r="L638" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M638" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="N638" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="M638" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="N638" t="s" s="2">
+      <c r="O638" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="P638" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="O638" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="P638" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="Q638" t="s" s="2">
         <v>37</v>
@@ -71925,7 +71913,7 @@
         <v>37</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>38</v>
@@ -71942,13 +71930,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -71971,19 +71959,19 @@
         <v>45</v>
       </c>
       <c r="L639" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="M639" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="N639" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="M639" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="N639" t="s" s="2">
+      <c r="O639" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="P639" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="O639" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="P639" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="Q639" t="s" s="2">
         <v>37</v>
@@ -71996,7 +71984,7 @@
         <v>37</v>
       </c>
       <c r="U639" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="V639" t="s" s="2">
         <v>37</v>
@@ -72032,7 +72020,7 @@
         <v>37</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72049,13 +72037,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72081,16 +72069,16 @@
         <v>145</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N640" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="O640" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="N640" t="s" s="2">
+      <c r="P640" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="O640" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="P640" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>37</v>
@@ -72139,7 +72127,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72156,13 +72144,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72185,19 +72173,19 @@
         <v>45</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="N641" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="O641" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="N641" t="s" s="2">
+      <c r="P641" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="O641" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="P641" t="s" s="2">
-        <v>964</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>37</v>
@@ -72246,7 +72234,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72263,13 +72251,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72295,14 +72283,14 @@
         <v>58</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>37</v>
@@ -72315,7 +72303,7 @@
         <v>37</v>
       </c>
       <c r="U642" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="V642" t="s" s="2">
         <v>37</v>
@@ -72351,7 +72339,7 @@
         <v>37</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72368,13 +72356,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72397,17 +72385,17 @@
         <v>45</v>
       </c>
       <c r="L643" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72456,7 +72444,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72473,13 +72461,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72505,13 +72493,13 @@
         <v>97</v>
       </c>
       <c r="M644" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="N644" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="O644" t="s" s="2">
         <v>978</v>
-      </c>
-      <c r="N644" t="s" s="2">
-        <v>979</v>
-      </c>
-      <c r="O644" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -72540,51 +72528,51 @@
         <v>123</v>
       </c>
       <c r="Z644" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AA644" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="AB644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG644" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="AH644" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI644" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK644" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="AA644" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="AB644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG644" t="s" s="2">
-        <v>977</v>
-      </c>
-      <c r="AH644" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI644" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK644" t="s" s="2">
-        <v>983</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72610,13 +72598,13 @@
         <v>151</v>
       </c>
       <c r="M645" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="N645" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="O645" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N645" t="s" s="2">
-        <v>986</v>
-      </c>
-      <c r="O645" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72666,7 +72654,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72683,13 +72671,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -72786,13 +72774,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72891,13 +72879,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -72998,13 +72986,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73027,13 +73015,13 @@
         <v>37</v>
       </c>
       <c r="L649" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="M649" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="N649" t="s" s="2">
         <v>992</v>
-      </c>
-      <c r="M649" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="N649" t="s" s="2">
-        <v>994</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -73084,7 +73072,7 @@
         <v>37</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>38</v>
@@ -73101,13 +73089,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73130,16 +73118,16 @@
         <v>37</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M650" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="N650" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="O650" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N650" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="O650" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -73168,10 +73156,10 @@
         <v>109</v>
       </c>
       <c r="Z650" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AA650" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AB650" t="s" s="2">
         <v>37</v>
@@ -73189,7 +73177,7 @@
         <v>37</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>38</v>
@@ -73201,18 +73189,18 @@
         <v>37</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73235,13 +73223,13 @@
         <v>45</v>
       </c>
       <c r="L651" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M651" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="N651" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="M651" t="s" s="2">
-        <v>1004</v>
-      </c>
-      <c r="N651" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -73292,7 +73280,7 @@
         <v>37</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>38</v>
@@ -73309,13 +73297,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73338,13 +73326,13 @@
         <v>37</v>
       </c>
       <c r="L652" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M652" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="N652" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
@@ -73374,10 +73362,10 @@
         <v>123</v>
       </c>
       <c r="Z652" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AA652" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AB652" t="s" s="2">
         <v>37</v>
@@ -73395,7 +73383,7 @@
         <v>37</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>38</v>
@@ -73407,18 +73395,18 @@
         <v>37</v>
       </c>
       <c r="AK652" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73441,19 +73429,19 @@
         <v>37</v>
       </c>
       <c r="L653" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M653" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="N653" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="O653" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="N653" t="s" s="2">
+      <c r="P653" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="O653" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="P653" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="Q653" t="s" s="2">
         <v>37</v>
@@ -73481,10 +73469,10 @@
         <v>123</v>
       </c>
       <c r="Z653" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AA653" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AB653" t="s" s="2">
         <v>37</v>
@@ -73502,7 +73490,7 @@
         <v>37</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>38</v>
@@ -73514,18 +73502,18 @@
         <v>37</v>
       </c>
       <c r="AK653" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73548,13 +73536,13 @@
         <v>37</v>
       </c>
       <c r="L654" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M654" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="N654" t="s" s="2">
         <v>1034</v>
-      </c>
-      <c r="M654" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="N654" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
@@ -73605,7 +73593,7 @@
         <v>37</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>38</v>
@@ -73622,13 +73610,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -73651,16 +73639,16 @@
         <v>37</v>
       </c>
       <c r="L655" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="M655" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="N655" t="s" s="2">
         <v>1063</v>
       </c>
-      <c r="M655" t="s" s="2">
+      <c r="O655" t="s" s="2">
         <v>1064</v>
-      </c>
-      <c r="N655" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O655" t="s" s="2">
-        <v>1066</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -73710,7 +73698,7 @@
         <v>37</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>38</v>
@@ -73727,7 +73715,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>645</v>
@@ -73830,7 +73818,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>647</v>
@@ -73935,7 +73923,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>648</v>
@@ -74038,7 +74026,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>649</v>
@@ -74141,7 +74129,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>650</v>
@@ -74246,7 +74234,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>651</v>
@@ -74351,7 +74339,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>652</v>
@@ -74456,7 +74444,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>653</v>
@@ -74561,7 +74549,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>654</v>
@@ -74666,7 +74654,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>655</v>
@@ -74771,7 +74759,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>656</v>
@@ -74876,7 +74864,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>657</v>
@@ -74981,7 +74969,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>658</v>
@@ -75086,7 +75074,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>659</v>
@@ -75191,7 +75179,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>666</v>
@@ -75201,7 +75189,7 @@
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
@@ -75223,10 +75211,10 @@
         <v>187</v>
       </c>
       <c r="M670" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N670" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="N670" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="O670" t="s" s="2">
         <v>668</v>
@@ -75296,7 +75284,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>671</v>
@@ -75310,7 +75298,7 @@
       </c>
       <c r="F671" s="2"/>
       <c r="G671" t="s" s="2">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H671" t="s" s="2">
         <v>39</v>
@@ -75397,7 +75385,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>673</v>
@@ -75431,7 +75419,7 @@
         <v>675</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="N672" t="s" s="2">
         <v>677</v>
@@ -75497,18 +75485,18 @@
         <v>548</v>
       </c>
       <c r="AK672" t="s" s="2">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -75605,13 +75593,13 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -75708,13 +75696,13 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -75754,7 +75742,7 @@
       </c>
       <c r="R675" s="2"/>
       <c r="S675" t="s" s="2">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="T675" t="s" s="2">
         <v>37</v>
@@ -75813,13 +75801,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -75842,7 +75830,7 @@
         <v>37</v>
       </c>
       <c r="L676" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M676" t="s" s="2">
         <v>558</v>
@@ -75879,13 +75867,13 @@
       </c>
       <c r="Z676" s="2"/>
       <c r="AA676" t="s" s="2">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AB676" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AC676" t="s" s="2">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AD676" s="2"/>
       <c r="AE676" t="s" s="2">
@@ -75912,16 +75900,16 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D677" t="s" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E677" t="s" s="2">
         <v>37</v>
@@ -75943,7 +75931,7 @@
         <v>37</v>
       </c>
       <c r="L677" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M677" t="s" s="2">
         <v>558</v>
@@ -76017,16 +76005,16 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C678" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D678" t="s" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E678" t="s" s="2">
         <v>37</v>
@@ -76048,13 +76036,13 @@
         <v>37</v>
       </c>
       <c r="L678" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="M678" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N678" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M678" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="N678" t="s" s="2">
-        <v>1118</v>
       </c>
       <c r="O678" s="2"/>
       <c r="P678" s="2"/>
@@ -76122,16 +76110,16 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C679" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D679" t="s" s="2">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E679" t="s" s="2">
         <v>37</v>
@@ -76153,13 +76141,13 @@
         <v>37</v>
       </c>
       <c r="L679" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="M679" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="N679" t="s" s="2">
         <v>1121</v>
-      </c>
-      <c r="M679" t="s" s="2">
-        <v>1122</v>
-      </c>
-      <c r="N679" t="s" s="2">
-        <v>1123</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" s="2"/>
@@ -76227,13 +76215,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -76330,13 +76318,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -76433,13 +76421,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -76479,7 +76467,7 @@
       </c>
       <c r="R682" s="2"/>
       <c r="S682" t="s" s="2">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="T682" t="s" s="2">
         <v>37</v>
@@ -76538,13 +76526,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -76567,7 +76555,7 @@
         <v>37</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="M683" t="s" s="2">
         <v>558</v>
@@ -76612,7 +76600,7 @@
         <v>37</v>
       </c>
       <c r="AC683" t="s" s="2">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AD683" s="2"/>
       <c r="AE683" t="s" s="2">
@@ -76639,16 +76627,16 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D684" t="s" s="2">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E684" t="s" s="2">
         <v>37</v>
@@ -76670,7 +76658,7 @@
         <v>37</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="M684" t="s" s="2">
         <v>558</v>
@@ -76744,16 +76732,16 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C685" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D685" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E685" t="s" s="2">
         <v>37</v>
@@ -76775,13 +76763,13 @@
         <v>37</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M685" t="s" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="N685" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
@@ -76849,13 +76837,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -76935,7 +76923,7 @@
         <v>37</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>38</v>
@@ -76952,13 +76940,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -76984,10 +76972,10 @@
         <v>128</v>
       </c>
       <c r="M687" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N687" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="N687" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
@@ -77026,7 +77014,7 @@
         <v>37</v>
       </c>
       <c r="AC687" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AD687" s="2"/>
       <c r="AE687" t="s" s="2">
@@ -77036,7 +77024,7 @@
         <v>70</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>38</v>
@@ -77053,16 +77041,16 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B688" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C688" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="D688" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="C688" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="D688" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="E688" t="s" s="2">
         <v>37</v>
@@ -77084,13 +77072,13 @@
         <v>37</v>
       </c>
       <c r="L688" t="s" s="2">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="N688" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
@@ -77141,7 +77129,7 @@
         <v>37</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>38</v>
@@ -77158,16 +77146,16 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B689" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C689" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="D689" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="C689" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="D689" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="E689" t="s" s="2">
         <v>37</v>
@@ -77189,13 +77177,13 @@
         <v>37</v>
       </c>
       <c r="L689" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="N689" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
@@ -77246,7 +77234,7 @@
         <v>37</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>38</v>
@@ -77263,13 +77251,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -77295,13 +77283,13 @@
         <v>119</v>
       </c>
       <c r="M690" t="s" s="2">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="N690" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="O690" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="O690" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="P690" s="2"/>
       <c r="Q690" t="s" s="2">
@@ -77312,7 +77300,7 @@
         <v>37</v>
       </c>
       <c r="T690" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="U690" t="s" s="2">
         <v>37</v>
@@ -77330,11 +77318,11 @@
         <v>137</v>
       </c>
       <c r="Z690" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AA690" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AA690" t="s" s="2">
-        <v>699</v>
-      </c>
       <c r="AB690" t="s" s="2">
         <v>37</v>
       </c>
@@ -77351,7 +77339,7 @@
         <v>37</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>44</v>
@@ -77368,13 +77356,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -77400,16 +77388,16 @@
         <v>119</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="N691" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="O691" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="O691" t="s" s="2">
+      <c r="P691" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="P691" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>37</v>
@@ -77419,7 +77407,7 @@
         <v>37</v>
       </c>
       <c r="T691" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U691" t="s" s="2">
         <v>37</v>
@@ -77437,11 +77425,11 @@
         <v>137</v>
       </c>
       <c r="Z691" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AA691" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AA691" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="AB691" t="s" s="2">
         <v>37</v>
       </c>
@@ -77458,7 +77446,7 @@
         <v>37</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>44</v>
@@ -77475,13 +77463,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -77507,14 +77495,14 @@
         <v>58</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O692" s="2"/>
       <c r="P692" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q692" t="s" s="2">
         <v>37</v>
@@ -77527,7 +77515,7 @@
         <v>37</v>
       </c>
       <c r="U692" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="V692" t="s" s="2">
         <v>37</v>
@@ -77563,7 +77551,7 @@
         <v>37</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>38</v>
@@ -77580,13 +77568,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -77609,19 +77597,19 @@
         <v>45</v>
       </c>
       <c r="L693" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="N693" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="O693" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="O693" t="s" s="2">
+      <c r="P693" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="P693" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="Q693" t="s" s="2">
         <v>37</v>
@@ -77631,7 +77619,7 @@
         <v>37</v>
       </c>
       <c r="T693" t="s" s="2">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U693" t="s" s="2">
         <v>37</v>
@@ -77650,7 +77638,7 @@
       </c>
       <c r="Z693" s="2"/>
       <c r="AA693" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB693" t="s" s="2">
         <v>37</v>
@@ -77668,7 +77656,7 @@
         <v>37</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>38</v>
@@ -77685,13 +77673,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -77714,19 +77702,19 @@
         <v>45</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N694" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="O694" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="O694" t="s" s="2">
+      <c r="P694" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="P694" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>37</v>
@@ -77775,7 +77763,7 @@
         <v>37</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>38</v>
@@ -77792,13 +77780,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -77821,13 +77809,13 @@
         <v>37</v>
       </c>
       <c r="L695" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M695" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="M695" t="s" s="2">
+      <c r="N695" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="N695" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="O695" s="2"/>
       <c r="P695" s="2"/>
@@ -77878,7 +77866,7 @@
         <v>37</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>38</v>
@@ -77895,13 +77883,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -77924,19 +77912,19 @@
         <v>45</v>
       </c>
       <c r="L696" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="N696" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="O696" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="O696" t="s" s="2">
+      <c r="P696" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="P696" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="Q696" t="s" s="2">
         <v>37</v>
@@ -77985,7 +77973,7 @@
         <v>37</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>38</v>
@@ -78002,17 +77990,17 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F697" s="2"/>
       <c r="G697" t="s" s="2">
@@ -78031,19 +78019,19 @@
         <v>45</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="N697" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="O697" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="O697" t="s" s="2">
+      <c r="P697" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="P697" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="Q697" t="s" s="2">
         <v>37</v>
@@ -78092,7 +78080,7 @@
         <v>37</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>38</v>
@@ -78104,18 +78092,18 @@
         <v>37</v>
       </c>
       <c r="AK697" t="s" s="2">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78212,13 +78200,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78317,16 +78305,16 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C700" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="D700" t="s" s="2">
         <v>1147</v>
-      </c>
-      <c r="D700" t="s" s="2">
-        <v>1149</v>
       </c>
       <c r="E700" t="s" s="2">
         <v>37</v>
@@ -78348,13 +78336,13 @@
         <v>37</v>
       </c>
       <c r="L700" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="M700" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="N700" t="s" s="2">
         <v>1150</v>
-      </c>
-      <c r="M700" t="s" s="2">
-        <v>1151</v>
-      </c>
-      <c r="N700" t="s" s="2">
-        <v>1152</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
@@ -78417,18 +78405,18 @@
         <v>37</v>
       </c>
       <c r="AK700" t="s" s="2">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -78525,13 +78513,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -78628,13 +78616,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -78674,7 +78662,7 @@
       </c>
       <c r="R703" s="2"/>
       <c r="S703" t="s" s="2">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="T703" t="s" s="2">
         <v>37</v>
@@ -78733,13 +78721,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -78762,7 +78750,7 @@
         <v>37</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="M704" t="s" s="2">
         <v>558</v>
@@ -78807,7 +78795,7 @@
         <v>37</v>
       </c>
       <c r="AC704" t="s" s="2">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AD704" s="2"/>
       <c r="AE704" t="s" s="2">
@@ -78834,16 +78822,16 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D705" t="s" s="2">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E705" t="s" s="2">
         <v>37</v>
@@ -78865,7 +78853,7 @@
         <v>37</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="M705" t="s" s="2">
         <v>558</v>
@@ -78939,13 +78927,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -78971,13 +78959,13 @@
         <v>58</v>
       </c>
       <c r="M706" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="N706" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="O706" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="N706" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="O706" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="P706" s="2"/>
       <c r="Q706" t="s" s="2">
@@ -79027,7 +79015,7 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>38</v>
@@ -79036,7 +79024,7 @@
         <v>44</v>
       </c>
       <c r="AJ706" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AK706" t="s" s="2">
         <v>56</v>
@@ -79044,13 +79032,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79076,13 +79064,13 @@
         <v>85</v>
       </c>
       <c r="M707" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="N707" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="O707" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="N707" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O707" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="P707" s="2"/>
       <c r="Q707" t="s" s="2">
@@ -79111,28 +79099,28 @@
         <v>101</v>
       </c>
       <c r="Z707" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="AA707" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="AB707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG707" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="AA707" t="s" s="2">
-        <v>1050</v>
-      </c>
-      <c r="AB707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG707" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>38</v>
@@ -79149,13 +79137,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79181,13 +79169,13 @@
         <v>128</v>
       </c>
       <c r="M708" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="N708" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="O708" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="N708" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="O708" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
@@ -79237,7 +79225,7 @@
         <v>37</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>38</v>
@@ -79254,13 +79242,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -79286,13 +79274,13 @@
         <v>58</v>
       </c>
       <c r="M709" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="N709" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="O709" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="N709" t="s" s="2">
-        <v>1059</v>
-      </c>
-      <c r="O709" t="s" s="2">
-        <v>1060</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79342,7 +79330,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>
@@ -79359,13 +79347,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -79388,19 +79376,19 @@
         <v>37</v>
       </c>
       <c r="L710" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M710" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="N710" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="N710" t="s" s="2">
+      <c r="O710" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="O710" t="s" s="2">
+      <c r="P710" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="P710" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="Q710" t="s" s="2">
         <v>37</v>
@@ -79428,11 +79416,11 @@
         <v>123</v>
       </c>
       <c r="Z710" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AA710" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="AA710" t="s" s="2">
-        <v>750</v>
-      </c>
       <c r="AB710" t="s" s="2">
         <v>37</v>
       </c>
@@ -79449,7 +79437,7 @@
         <v>37</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>38</v>
@@ -79466,13 +79454,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -79495,13 +79483,13 @@
         <v>37</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
@@ -79552,7 +79540,7 @@
         <v>37</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>38</v>
@@ -79569,13 +79557,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -79601,13 +79589,13 @@
         <v>151</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="N712" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="O712" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="O712" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="P712" s="2"/>
       <c r="Q712" t="s" s="2">
@@ -79657,7 +79645,7 @@
         <v>37</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>38</v>
@@ -79666,7 +79654,7 @@
         <v>39</v>
       </c>
       <c r="AJ712" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AK712" t="s" s="2">
         <v>56</v>
@@ -79674,13 +79662,13 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -79777,13 +79765,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -79882,13 +79870,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -79989,13 +79977,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -80018,19 +80006,19 @@
         <v>37</v>
       </c>
       <c r="L716" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M716" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N716" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="N716" t="s" s="2">
+      <c r="O716" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="O716" t="s" s="2">
+      <c r="P716" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="P716" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="Q716" t="s" s="2">
         <v>37</v>
@@ -80058,11 +80046,11 @@
         <v>109</v>
       </c>
       <c r="Z716" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AA716" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="AA716" t="s" s="2">
-        <v>769</v>
-      </c>
       <c r="AB716" t="s" s="2">
         <v>37</v>
       </c>
@@ -80079,7 +80067,7 @@
         <v>37</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>38</v>
@@ -80096,13 +80084,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -80125,79 +80113,79 @@
         <v>37</v>
       </c>
       <c r="L717" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M717" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="M717" t="s" s="2">
+      <c r="N717" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="N717" t="s" s="2">
+      <c r="O717" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="O717" t="s" s="2">
+      <c r="P717" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="P717" t="s" s="2">
+      <c r="Q717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R717" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="Q717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R717" t="s" s="2">
+      <c r="S717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG717" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AH717" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI717" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ717" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="S717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG717" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="AH717" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI717" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ717" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="AK717" t="s" s="2">
         <v>56</v>
@@ -80205,13 +80193,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -80234,17 +80222,17 @@
         <v>37</v>
       </c>
       <c r="L718" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M718" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N718" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="N718" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="O718" s="2"/>
       <c r="P718" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q718" t="s" s="2">
         <v>37</v>
@@ -80293,7 +80281,7 @@
         <v>37</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>38</v>
@@ -80310,13 +80298,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -80339,13 +80327,13 @@
         <v>37</v>
       </c>
       <c r="L719" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O719" s="2"/>
       <c r="P719" s="2"/>
@@ -80396,7 +80384,7 @@
         <v>37</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>44</v>
@@ -80413,13 +80401,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -80442,19 +80430,19 @@
         <v>37</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M720" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N720" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="N720" t="s" s="2">
+      <c r="O720" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="O720" t="s" s="2">
+      <c r="P720" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="P720" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="Q720" t="s" s="2">
         <v>37</v>
@@ -80482,11 +80470,11 @@
         <v>123</v>
       </c>
       <c r="Z720" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AA720" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="AA720" t="s" s="2">
-        <v>792</v>
-      </c>
       <c r="AB720" t="s" s="2">
         <v>37</v>
       </c>
@@ -80503,7 +80491,7 @@
         <v>37</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>38</v>
@@ -80512,7 +80500,7 @@
         <v>44</v>
       </c>
       <c r="AJ720" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AK720" t="s" s="2">
         <v>56</v>
@@ -80520,7 +80508,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>544</v>
@@ -80552,10 +80540,10 @@
         <v>40</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -80623,7 +80611,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>549</v>
@@ -80726,7 +80714,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>550</v>
@@ -80829,7 +80817,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>552</v>
@@ -80875,7 +80863,7 @@
       </c>
       <c r="R724" s="2"/>
       <c r="S724" t="s" s="2">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="T724" t="s" s="2">
         <v>37</v>
@@ -80934,7 +80922,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>556</v>
@@ -80963,7 +80951,7 @@
         <v>37</v>
       </c>
       <c r="L725" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M725" t="s" s="2">
         <v>558</v>

--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24051" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24051" uniqueCount="1174">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:00:21+00:00</t>
+    <t>2023-07-26T15:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2087,18 +2087,20 @@
     <t>List.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-</t>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>List.extension</t>
@@ -2547,14 +2549,7 @@
     <t>DocumentReference.contained</t>
   </si>
   <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : la•les ressource•s référencée•s dans les attributs author et authenticator</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -2570,7 +2565,7 @@
 </t>
   </si>
   <si>
-    <t>Extension définie par ce volet pour distinguer les fiches archivées des actives.</t>
+    <t>Extension définie pour distinguer les fiches archivées des actives.</t>
   </si>
   <si>
     <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
@@ -3459,6 +3454,9 @@
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Comprehensive.SubmissionSet</t>
   </si>
   <si>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : source ou source.extension[authorOrg]</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -3613,11 +3611,7 @@
     <t>Représente la date et heure de soumission.</t>
   </si>
   <si>
-    <t>Représente les personnes physiques ou morales et/ou les dispositifs auteurs d’un lot de soumission.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {f:source}</t>
+    <t>Représente l'auteur du lot de soumission. Si l'auteur est une organisation, utiliser l'extension authorOrg. Si l’auteur est une personne physique ou un dispositif, utiliser l’attribut source.reference .</t>
   </si>
   <si>
     <t>List.source.id</t>
@@ -3636,15 +3630,10 @@
 </t>
   </si>
   <si>
-    <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+    <t>Auteur organisationnel du document</t>
   </si>
   <si>
     <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}constr-bind-authororg:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "source" n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].
-La ressource référencée doit être présente sous l’élément List.contained. {f:source/f:extension[authorOrg]}</t>
   </si>
   <si>
     <t>List.source.extension:authorOrg.id</t>
@@ -4649,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="104">
@@ -4657,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="105">
@@ -4673,7 +4662,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="107">
@@ -4681,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="108">
@@ -4727,7 +4716,7 @@
         <v>21</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="114">
@@ -4771,7 +4760,7 @@
         <v>31</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="120">
@@ -4803,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="124">
@@ -4811,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="125">
@@ -4827,7 +4816,7 @@
         <v>8</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="127">
@@ -4835,7 +4824,7 @@
         <v>10</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="128">
@@ -4881,7 +4870,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="134">
@@ -4925,7 +4914,7 @@
         <v>31</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="140">
@@ -4957,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="144">
@@ -4965,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="145">
@@ -4981,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="147">
@@ -4989,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="148">
@@ -5035,7 +5024,7 @@
         <v>21</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="154">
@@ -5079,7 +5068,7 @@
         <v>31</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="160">
@@ -5111,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="164">
@@ -5119,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="165">
@@ -5135,7 +5124,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="167">
@@ -5143,7 +5132,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="168">
@@ -5189,7 +5178,7 @@
         <v>21</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="174">
@@ -5257,7 +5246,7 @@
         <v>546</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="183">
@@ -56535,11 +56524,11 @@
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
-        <v>502</v>
+        <v>667</v>
       </c>
       <c r="F492" s="2"/>
       <c r="G492" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H492" t="s" s="2">
         <v>39</v>
@@ -56554,16 +56543,16 @@
         <v>37</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>667</v>
+        <v>187</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>504</v>
+        <v>668</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>505</v>
+        <v>669</v>
       </c>
       <c r="O492" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P492" s="2"/>
       <c r="Q492" t="s" s="2">
@@ -56613,7 +56602,7 @@
         <v>37</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>38</v>
@@ -56625,7 +56614,7 @@
         <v>37</v>
       </c>
       <c r="AK492" t="s" s="2">
-        <v>670</v>
+        <v>37</v>
       </c>
     </row>
     <row r="493">
@@ -56633,10 +56622,10 @@
         <v>640</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -56714,7 +56703,7 @@
         <v>70</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>38</v>
@@ -56734,13 +56723,13 @@
         <v>640</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E494" t="s" s="2">
         <v>37</v>
@@ -56762,13 +56751,13 @@
         <v>37</v>
       </c>
       <c r="L494" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
@@ -56819,7 +56808,7 @@
         <v>37</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>38</v>
@@ -56839,10 +56828,10 @@
         <v>640</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -56922,7 +56911,7 @@
         <v>37</v>
       </c>
       <c r="AG495" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AH495" t="s" s="2">
         <v>38</v>
@@ -56942,10 +56931,10 @@
         <v>640</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -56971,10 +56960,10 @@
         <v>128</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N496" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O496" s="2"/>
       <c r="P496" s="2"/>
@@ -57013,7 +57002,7 @@
         <v>37</v>
       </c>
       <c r="AC496" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AD496" s="2"/>
       <c r="AE496" t="s" s="2">
@@ -57023,7 +57012,7 @@
         <v>70</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>38</v>
@@ -57043,13 +57032,13 @@
         <v>640</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D497" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E497" t="s" s="2">
         <v>37</v>
@@ -57071,13 +57060,13 @@
         <v>37</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
@@ -57128,7 +57117,7 @@
         <v>37</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>38</v>
@@ -57148,13 +57137,13 @@
         <v>640</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D498" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E498" t="s" s="2">
         <v>37</v>
@@ -57176,13 +57165,13 @@
         <v>37</v>
       </c>
       <c r="L498" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N498" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O498" s="2"/>
       <c r="P498" s="2"/>
@@ -57233,7 +57222,7 @@
         <v>37</v>
       </c>
       <c r="AG498" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH498" t="s" s="2">
         <v>38</v>
@@ -57253,10 +57242,10 @@
         <v>640</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -57282,13 +57271,13 @@
         <v>119</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O499" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P499" s="2"/>
       <c r="Q499" t="s" s="2">
@@ -57317,10 +57306,10 @@
         <v>137</v>
       </c>
       <c r="Z499" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AA499" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AB499" t="s" s="2">
         <v>37</v>
@@ -57338,7 +57327,7 @@
         <v>37</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>44</v>
@@ -57358,10 +57347,10 @@
         <v>640</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -57387,16 +57376,16 @@
         <v>119</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O500" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P500" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q500" t="s" s="2">
         <v>37</v>
@@ -57406,7 +57395,7 @@
         <v>37</v>
       </c>
       <c r="T500" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="U500" t="s" s="2">
         <v>37</v>
@@ -57424,10 +57413,10 @@
         <v>137</v>
       </c>
       <c r="Z500" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AA500" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AB500" t="s" s="2">
         <v>37</v>
@@ -57445,7 +57434,7 @@
         <v>37</v>
       </c>
       <c r="AG500" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AH500" t="s" s="2">
         <v>44</v>
@@ -57465,10 +57454,10 @@
         <v>640</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -57494,14 +57483,14 @@
         <v>58</v>
       </c>
       <c r="M501" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N501" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O501" s="2"/>
       <c r="P501" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q501" t="s" s="2">
         <v>37</v>
@@ -57514,7 +57503,7 @@
         <v>37</v>
       </c>
       <c r="U501" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="V501" t="s" s="2">
         <v>37</v>
@@ -57550,7 +57539,7 @@
         <v>37</v>
       </c>
       <c r="AG501" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AH501" t="s" s="2">
         <v>38</v>
@@ -57570,10 +57559,10 @@
         <v>640</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -57596,19 +57585,19 @@
         <v>45</v>
       </c>
       <c r="L502" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N502" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O502" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P502" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q502" t="s" s="2">
         <v>37</v>
@@ -57618,7 +57607,7 @@
         <v>37</v>
       </c>
       <c r="T502" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="U502" t="s" s="2">
         <v>37</v>
@@ -57637,7 +57626,7 @@
       </c>
       <c r="Z502" s="2"/>
       <c r="AA502" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB502" t="s" s="2">
         <v>37</v>
@@ -57655,7 +57644,7 @@
         <v>37</v>
       </c>
       <c r="AG502" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AH502" t="s" s="2">
         <v>38</v>
@@ -57675,10 +57664,10 @@
         <v>640</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -57701,19 +57690,19 @@
         <v>45</v>
       </c>
       <c r="L503" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N503" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O503" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P503" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Q503" t="s" s="2">
         <v>37</v>
@@ -57762,7 +57751,7 @@
         <v>37</v>
       </c>
       <c r="AG503" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AH503" t="s" s="2">
         <v>38</v>
@@ -57782,10 +57771,10 @@
         <v>640</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -57808,13 +57797,13 @@
         <v>37</v>
       </c>
       <c r="L504" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M504" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N504" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
@@ -57865,7 +57854,7 @@
         <v>37</v>
       </c>
       <c r="AG504" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AH504" t="s" s="2">
         <v>38</v>
@@ -57885,10 +57874,10 @@
         <v>640</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -57911,19 +57900,19 @@
         <v>45</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N505" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O505" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P505" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Q505" t="s" s="2">
         <v>37</v>
@@ -57972,7 +57961,7 @@
         <v>37</v>
       </c>
       <c r="AG505" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AH505" t="s" s="2">
         <v>38</v>
@@ -57992,14 +57981,14 @@
         <v>640</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F506" s="2"/>
       <c r="G506" t="s" s="2">
@@ -58018,19 +58007,19 @@
         <v>45</v>
       </c>
       <c r="L506" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N506" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O506" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P506" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q506" t="s" s="2">
         <v>37</v>
@@ -58079,7 +58068,7 @@
         <v>37</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>38</v>
@@ -58099,10 +58088,10 @@
         <v>640</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -58125,19 +58114,19 @@
         <v>37</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M507" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N507" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O507" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P507" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Q507" t="s" s="2">
         <v>37</v>
@@ -58165,10 +58154,10 @@
         <v>123</v>
       </c>
       <c r="Z507" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AA507" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AB507" t="s" s="2">
         <v>37</v>
@@ -58186,7 +58175,7 @@
         <v>37</v>
       </c>
       <c r="AG507" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AH507" t="s" s="2">
         <v>38</v>
@@ -58206,10 +58195,10 @@
         <v>640</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -58232,13 +58221,13 @@
         <v>37</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M508" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N508" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O508" s="2"/>
       <c r="P508" s="2"/>
@@ -58289,7 +58278,7 @@
         <v>37</v>
       </c>
       <c r="AG508" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AH508" t="s" s="2">
         <v>38</v>
@@ -58309,10 +58298,10 @@
         <v>640</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -58338,13 +58327,13 @@
         <v>151</v>
       </c>
       <c r="M509" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="O509" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="P509" s="2"/>
       <c r="Q509" t="s" s="2">
@@ -58394,7 +58383,7 @@
         <v>37</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>38</v>
@@ -58403,7 +58392,7 @@
         <v>39</v>
       </c>
       <c r="AJ509" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AK509" t="s" s="2">
         <v>56</v>
@@ -58414,10 +58403,10 @@
         <v>640</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -58517,10 +58506,10 @@
         <v>640</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -58622,10 +58611,10 @@
         <v>640</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -58729,10 +58718,10 @@
         <v>640</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
@@ -58755,19 +58744,19 @@
         <v>37</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N513" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O513" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P513" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Q513" t="s" s="2">
         <v>37</v>
@@ -58795,10 +58784,10 @@
         <v>109</v>
       </c>
       <c r="Z513" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AA513" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AB513" t="s" s="2">
         <v>37</v>
@@ -58816,7 +58805,7 @@
         <v>37</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>38</v>
@@ -58836,10 +58825,10 @@
         <v>640</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -58862,71 +58851,71 @@
         <v>37</v>
       </c>
       <c r="L514" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N514" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="O514" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="P514" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="Q514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R514" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="S514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG514" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M514" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N514" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="O514" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="P514" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="Q514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R514" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="S514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF514" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG514" t="s" s="2">
-        <v>769</v>
-      </c>
       <c r="AH514" t="s" s="2">
         <v>38</v>
       </c>
@@ -58934,7 +58923,7 @@
         <v>44</v>
       </c>
       <c r="AJ514" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AK514" t="s" s="2">
         <v>56</v>
@@ -58945,10 +58934,10 @@
         <v>640</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -58971,17 +58960,17 @@
         <v>37</v>
       </c>
       <c r="L515" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M515" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N515" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O515" s="2"/>
       <c r="P515" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q515" t="s" s="2">
         <v>37</v>
@@ -59030,7 +59019,7 @@
         <v>37</v>
       </c>
       <c r="AG515" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AH515" t="s" s="2">
         <v>38</v>
@@ -59050,10 +59039,10 @@
         <v>640</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -59076,13 +59065,13 @@
         <v>37</v>
       </c>
       <c r="L516" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M516" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N516" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O516" s="2"/>
       <c r="P516" s="2"/>
@@ -59133,7 +59122,7 @@
         <v>37</v>
       </c>
       <c r="AG516" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AH516" t="s" s="2">
         <v>44</v>
@@ -59153,10 +59142,10 @@
         <v>640</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -59179,19 +59168,19 @@
         <v>37</v>
       </c>
       <c r="L517" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M517" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N517" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O517" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="P517" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Q517" t="s" s="2">
         <v>37</v>
@@ -59219,10 +59208,10 @@
         <v>123</v>
       </c>
       <c r="Z517" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AA517" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AB517" t="s" s="2">
         <v>37</v>
@@ -59240,7 +59229,7 @@
         <v>37</v>
       </c>
       <c r="AG517" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AH517" t="s" s="2">
         <v>38</v>
@@ -59249,7 +59238,7 @@
         <v>44</v>
       </c>
       <c r="AJ517" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AK517" t="s" s="2">
         <v>56</v>
@@ -59257,7 +59246,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>608</v>
@@ -59362,13 +59351,13 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -59467,13 +59456,13 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -59570,13 +59559,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -59673,13 +59662,13 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -59778,13 +59767,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -59810,7 +59799,7 @@
         <v>46</v>
       </c>
       <c r="M523" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N523" t="s" s="2">
         <v>75</v>
@@ -59883,13 +59872,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -59988,13 +59977,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -60093,13 +60082,13 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -60198,13 +60187,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -60303,13 +60292,13 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -60408,13 +60397,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -60513,13 +60502,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -60618,13 +60607,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -60723,17 +60712,17 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
-        <v>813</v>
+        <v>667</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
@@ -60758,10 +60747,10 @@
         <v>814</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>815</v>
+        <v>669</v>
       </c>
       <c r="O532" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P532" s="2"/>
       <c r="Q532" t="s" s="2">
@@ -60811,7 +60800,7 @@
         <v>37</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>38</v>
@@ -60828,13 +60817,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60912,7 +60901,7 @@
         <v>70</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>38</v>
@@ -60929,16 +60918,16 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B534" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="C534" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="D534" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="C534" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="D534" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="E534" t="s" s="2">
         <v>37</v>
@@ -60960,13 +60949,13 @@
         <v>37</v>
       </c>
       <c r="L534" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M534" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M534" t="s" s="2">
+      <c r="N534" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N534" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
@@ -61017,7 +61006,7 @@
         <v>37</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>38</v>
@@ -61034,13 +61023,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -61120,7 +61109,7 @@
         <v>37</v>
       </c>
       <c r="AG535" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AH535" t="s" s="2">
         <v>38</v>
@@ -61137,13 +61126,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -61166,19 +61155,19 @@
         <v>37</v>
       </c>
       <c r="L536" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M536" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N536" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O536" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="N536" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="O536" t="s" s="2">
+      <c r="P536" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="P536" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="Q536" t="s" s="2">
         <v>37</v>
@@ -61227,7 +61216,7 @@
         <v>37</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>38</v>
@@ -61244,13 +61233,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -61276,10 +61265,10 @@
         <v>128</v>
       </c>
       <c r="M537" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N537" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="N537" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
@@ -61318,7 +61307,7 @@
         <v>37</v>
       </c>
       <c r="AC537" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AD537" s="2"/>
       <c r="AE537" t="s" s="2">
@@ -61328,7 +61317,7 @@
         <v>70</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>38</v>
@@ -61345,16 +61334,16 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E538" t="s" s="2">
         <v>37</v>
@@ -61376,13 +61365,13 @@
         <v>37</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O538" s="2"/>
       <c r="P538" s="2"/>
@@ -61433,7 +61422,7 @@
         <v>37</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>38</v>
@@ -61450,13 +61439,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -61482,13 +61471,13 @@
         <v>119</v>
       </c>
       <c r="M539" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="N539" t="s" s="2">
         <v>833</v>
       </c>
-      <c r="N539" t="s" s="2">
+      <c r="O539" t="s" s="2">
         <v>834</v>
-      </c>
-      <c r="O539" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -61518,7 +61507,7 @@
       </c>
       <c r="Z539" s="2"/>
       <c r="AA539" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AB539" t="s" s="2">
         <v>37</v>
@@ -61536,7 +61525,7 @@
         <v>37</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>44</v>
@@ -61553,13 +61542,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -61585,13 +61574,13 @@
         <v>119</v>
       </c>
       <c r="M540" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N540" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="N540" t="s" s="2">
+      <c r="O540" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="O540" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="P540" s="2"/>
       <c r="Q540" t="s" s="2">
@@ -61620,11 +61609,11 @@
         <v>137</v>
       </c>
       <c r="Z540" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AA540" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="AA540" t="s" s="2">
-        <v>842</v>
-      </c>
       <c r="AB540" t="s" s="2">
         <v>37</v>
       </c>
@@ -61641,7 +61630,7 @@
         <v>37</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>38</v>
@@ -61658,13 +61647,13 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -61687,16 +61676,16 @@
         <v>45</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M541" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="N541" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="N541" t="s" s="2">
+      <c r="O541" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="O541" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -61726,52 +61715,52 @@
       </c>
       <c r="Z541" s="2"/>
       <c r="AA541" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AB541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG541" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AH541" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI541" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ541" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK541" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AB541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG541" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="AH541" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI541" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ541" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK541" t="s" s="2">
-        <v>848</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" t="s" s="2">
@@ -61790,16 +61779,16 @@
         <v>45</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M542" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N542" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="N542" t="s" s="2">
+      <c r="O542" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="O542" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61828,11 +61817,11 @@
         <v>123</v>
       </c>
       <c r="Z542" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AA542" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="AA542" t="s" s="2">
-        <v>855</v>
-      </c>
       <c r="AB542" t="s" s="2">
         <v>37</v>
       </c>
@@ -61849,7 +61838,7 @@
         <v>37</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>38</v>
@@ -61861,18 +61850,18 @@
         <v>37</v>
       </c>
       <c r="AK542" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61895,13 +61884,13 @@
         <v>45</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M543" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="N543" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="N543" t="s" s="2">
-        <v>859</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -61952,7 +61941,7 @@
         <v>37</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>38</v>
@@ -61969,17 +61958,17 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -62001,13 +61990,13 @@
         <v>79</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="N544" t="s" s="2">
         <v>862</v>
       </c>
-      <c r="N544" t="s" s="2">
+      <c r="O544" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -62057,7 +62046,7 @@
         <v>37</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>38</v>
@@ -62074,13 +62063,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62103,16 +62092,16 @@
         <v>45</v>
       </c>
       <c r="L545" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M545" t="s" s="2">
         <v>866</v>
       </c>
-      <c r="M545" t="s" s="2">
+      <c r="N545" t="s" s="2">
         <v>867</v>
       </c>
-      <c r="N545" t="s" s="2">
+      <c r="O545" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -62162,7 +62151,7 @@
         <v>37</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>38</v>
@@ -62179,13 +62168,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -62208,16 +62197,16 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="M546" t="s" s="2">
         <v>871</v>
       </c>
-      <c r="M546" t="s" s="2">
+      <c r="N546" t="s" s="2">
         <v>872</v>
       </c>
-      <c r="N546" t="s" s="2">
+      <c r="O546" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="O546" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -62267,7 +62256,7 @@
         <v>37</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>38</v>
@@ -62284,13 +62273,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -62313,16 +62302,16 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="M547" t="s" s="2">
         <v>876</v>
       </c>
-      <c r="M547" t="s" s="2">
+      <c r="N547" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="N547" t="s" s="2">
+      <c r="O547" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -62372,7 +62361,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62389,13 +62378,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -62421,13 +62410,13 @@
         <v>151</v>
       </c>
       <c r="M548" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="N548" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="N548" t="s" s="2">
+      <c r="O548" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -62477,7 +62466,7 @@
         <v>37</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>38</v>
@@ -62489,18 +62478,18 @@
         <v>37</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -62597,13 +62586,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62702,13 +62691,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62809,13 +62798,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62841,13 +62830,13 @@
         <v>119</v>
       </c>
       <c r="M552" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="N552" t="s" s="2">
         <v>889</v>
       </c>
-      <c r="N552" t="s" s="2">
+      <c r="O552" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="O552" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -62876,11 +62865,11 @@
         <v>137</v>
       </c>
       <c r="Z552" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="AA552" t="s" s="2">
         <v>892</v>
       </c>
-      <c r="AA552" t="s" s="2">
-        <v>893</v>
-      </c>
       <c r="AB552" t="s" s="2">
         <v>37</v>
       </c>
@@ -62897,7 +62886,7 @@
         <v>37</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>44</v>
@@ -62914,13 +62903,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62943,13 +62932,13 @@
         <v>45</v>
       </c>
       <c r="L553" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M553" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="M553" t="s" s="2">
+      <c r="N553" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N553" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -63000,7 +62989,7 @@
         <v>37</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>44</v>
@@ -63012,18 +63001,18 @@
         <v>37</v>
       </c>
       <c r="AK553" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -63049,16 +63038,16 @@
         <v>58</v>
       </c>
       <c r="M554" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="N554" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="N554" t="s" s="2">
+      <c r="O554" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="O554" t="s" s="2">
+      <c r="P554" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>37</v>
@@ -63107,7 +63096,7 @@
         <v>37</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>38</v>
@@ -63124,13 +63113,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -63153,19 +63142,19 @@
         <v>45</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M555" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N555" t="s" s="2">
         <v>905</v>
       </c>
-      <c r="N555" t="s" s="2">
+      <c r="O555" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="O555" t="s" s="2">
+      <c r="P555" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="P555" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="Q555" t="s" s="2">
         <v>37</v>
@@ -63214,7 +63203,7 @@
         <v>37</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>38</v>
@@ -63226,18 +63215,18 @@
         <v>37</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -63263,10 +63252,10 @@
         <v>151</v>
       </c>
       <c r="M556" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="N556" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="N556" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -63317,7 +63306,7 @@
         <v>37</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>44</v>
@@ -63334,13 +63323,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -63437,13 +63426,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63542,13 +63531,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63649,13 +63638,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63678,13 +63667,13 @@
         <v>45</v>
       </c>
       <c r="L560" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="M560" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="M560" t="s" s="2">
+      <c r="N560" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="N560" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -63735,7 +63724,7 @@
         <v>37</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>44</v>
@@ -63752,13 +63741,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63855,13 +63844,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -63960,13 +63949,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -63992,14 +63981,14 @@
         <v>119</v>
       </c>
       <c r="M563" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N563" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="N563" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>37</v>
@@ -64012,7 +64001,7 @@
         <v>37</v>
       </c>
       <c r="U563" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V563" t="s" s="2">
         <v>37</v>
@@ -64027,28 +64016,28 @@
         <v>137</v>
       </c>
       <c r="Z563" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="AA563" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="AA563" t="s" s="2">
+      <c r="AB563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG563" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="AB563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG563" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>38</v>
@@ -64065,13 +64054,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64097,14 +64086,14 @@
         <v>119</v>
       </c>
       <c r="M564" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="N564" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="N564" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>37</v>
@@ -64117,7 +64106,7 @@
         <v>37</v>
       </c>
       <c r="U564" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V564" t="s" s="2">
         <v>37</v>
@@ -64153,7 +64142,7 @@
         <v>37</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>38</v>
@@ -64170,13 +64159,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64199,19 +64188,19 @@
         <v>37</v>
       </c>
       <c r="L565" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="M565" t="s" s="2">
         <v>937</v>
       </c>
-      <c r="M565" t="s" s="2">
+      <c r="N565" t="s" s="2">
         <v>938</v>
       </c>
-      <c r="N565" t="s" s="2">
+      <c r="O565" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="O565" t="s" s="2">
+      <c r="P565" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="P565" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>37</v>
@@ -64260,7 +64249,7 @@
         <v>37</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>38</v>
@@ -64277,13 +64266,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64306,19 +64295,19 @@
         <v>45</v>
       </c>
       <c r="L566" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M566" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="M566" t="s" s="2">
+      <c r="N566" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="N566" t="s" s="2">
+      <c r="O566" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="O566" t="s" s="2">
+      <c r="P566" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="P566" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>37</v>
@@ -64331,66 +64320,66 @@
         <v>37</v>
       </c>
       <c r="U566" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="V566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG566" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="V566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG566" t="s" s="2">
+      <c r="AH566" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI566" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK566" t="s" s="2">
         <v>950</v>
-      </c>
-      <c r="AH566" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI566" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK566" t="s" s="2">
-        <v>951</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -64416,16 +64405,16 @@
         <v>145</v>
       </c>
       <c r="M567" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N567" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="N567" t="s" s="2">
+      <c r="O567" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="O567" t="s" s="2">
+      <c r="P567" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="P567" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>37</v>
@@ -64474,7 +64463,7 @@
         <v>37</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>38</v>
@@ -64491,13 +64480,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64520,19 +64509,19 @@
         <v>45</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M568" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="N568" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="N568" t="s" s="2">
+      <c r="O568" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="O568" t="s" s="2">
+      <c r="P568" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="P568" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>37</v>
@@ -64581,7 +64570,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64598,13 +64587,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64630,14 +64619,14 @@
         <v>58</v>
       </c>
       <c r="M569" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N569" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N569" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>37</v>
@@ -64650,43 +64639,43 @@
         <v>37</v>
       </c>
       <c r="U569" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="V569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG569" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="V569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG569" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64703,13 +64692,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64732,17 +64721,17 @@
         <v>45</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M570" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N570" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="N570" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>37</v>
@@ -64791,7 +64780,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64808,13 +64797,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64840,13 +64829,13 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="N571" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="N571" t="s" s="2">
+      <c r="O571" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="O571" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64875,51 +64864,51 @@
         <v>123</v>
       </c>
       <c r="Z571" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="AA571" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="AA571" t="s" s="2">
+      <c r="AB571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG571" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AH571" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI571" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK571" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="AB571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG571" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="AH571" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI571" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK571" t="s" s="2">
-        <v>981</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64945,13 +64934,13 @@
         <v>151</v>
       </c>
       <c r="M572" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="N572" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="N572" t="s" s="2">
+      <c r="O572" t="s" s="2">
         <v>984</v>
-      </c>
-      <c r="O572" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -65001,7 +64990,7 @@
         <v>37</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>38</v>
@@ -65018,13 +65007,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -65121,13 +65110,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -65226,13 +65215,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -65333,13 +65322,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -65362,13 +65351,13 @@
         <v>37</v>
       </c>
       <c r="L576" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="M576" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="M576" t="s" s="2">
+      <c r="N576" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="N576" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -65419,7 +65408,7 @@
         <v>37</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>38</v>
@@ -65436,13 +65425,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -65465,16 +65454,16 @@
         <v>37</v>
       </c>
       <c r="L577" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M577" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="N577" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="N577" t="s" s="2">
+      <c r="O577" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="O577" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -65503,11 +65492,11 @@
         <v>109</v>
       </c>
       <c r="Z577" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="AA577" t="s" s="2">
         <v>997</v>
       </c>
-      <c r="AA577" t="s" s="2">
-        <v>998</v>
-      </c>
       <c r="AB577" t="s" s="2">
         <v>37</v>
       </c>
@@ -65524,7 +65513,7 @@
         <v>37</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>38</v>
@@ -65536,18 +65525,18 @@
         <v>37</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65570,13 +65559,13 @@
         <v>45</v>
       </c>
       <c r="L578" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M578" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M578" t="s" s="2">
+      <c r="N578" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N578" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -65627,7 +65616,7 @@
         <v>37</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>38</v>
@@ -65644,13 +65633,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65747,13 +65736,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65852,13 +65841,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65881,16 +65870,16 @@
         <v>45</v>
       </c>
       <c r="L581" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M581" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="N581" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="N581" t="s" s="2">
+      <c r="O581" t="s" s="2">
         <v>1008</v>
-      </c>
-      <c r="O581" t="s" s="2">
-        <v>1009</v>
       </c>
       <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
@@ -65940,16 +65929,16 @@
         <v>37</v>
       </c>
       <c r="AG581" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="AH581" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI581" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ581" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="AH581" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI581" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ581" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="AK581" t="s" s="2">
         <v>56</v>
@@ -65957,13 +65946,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -65986,69 +65975,69 @@
         <v>45</v>
       </c>
       <c r="L582" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M582" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="N582" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="N582" t="s" s="2">
+      <c r="O582" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="O582" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R582" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="S582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG582" t="s" s="2">
         <v>1016</v>
       </c>
-      <c r="S582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG582" t="s" s="2">
-        <v>1017</v>
-      </c>
       <c r="AH582" t="s" s="2">
         <v>38</v>
       </c>
@@ -66056,7 +66045,7 @@
         <v>44</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>56</v>
@@ -66064,13 +66053,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66093,13 +66082,13 @@
         <v>37</v>
       </c>
       <c r="L583" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M583" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N583" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="N583" t="s" s="2">
-        <v>1020</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -66129,51 +66118,51 @@
         <v>123</v>
       </c>
       <c r="Z583" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="AA583" t="s" s="2">
         <v>1021</v>
       </c>
-      <c r="AA583" t="s" s="2">
+      <c r="AB583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG583" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="AH583" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI583" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK583" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="AB583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG583" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="AH583" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI583" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>1023</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66196,19 +66185,19 @@
         <v>37</v>
       </c>
       <c r="L584" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M584" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N584" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="N584" t="s" s="2">
+      <c r="O584" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="O584" t="s" s="2">
+      <c r="P584" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="P584" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>37</v>
@@ -66236,11 +66225,11 @@
         <v>123</v>
       </c>
       <c r="Z584" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="AA584" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="AA584" t="s" s="2">
-        <v>1030</v>
-      </c>
       <c r="AB584" t="s" s="2">
         <v>37</v>
       </c>
@@ -66257,7 +66246,7 @@
         <v>37</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>38</v>
@@ -66269,18 +66258,18 @@
         <v>37</v>
       </c>
       <c r="AK584" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66303,13 +66292,13 @@
         <v>37</v>
       </c>
       <c r="L585" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="M585" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="M585" t="s" s="2">
+      <c r="N585" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="N585" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -66360,7 +66349,7 @@
         <v>37</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>38</v>
@@ -66377,13 +66366,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66480,13 +66469,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -66585,13 +66574,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -66617,13 +66606,13 @@
         <v>58</v>
       </c>
       <c r="M588" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="N588" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="N588" t="s" s="2">
+      <c r="O588" t="s" s="2">
         <v>1039</v>
-      </c>
-      <c r="O588" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -66673,16 +66662,16 @@
         <v>37</v>
       </c>
       <c r="AG588" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AH588" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI588" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ588" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="AH588" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI588" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ588" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="AK588" t="s" s="2">
         <v>56</v>
@@ -66690,13 +66679,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66722,13 +66711,13 @@
         <v>85</v>
       </c>
       <c r="M589" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="N589" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="N589" t="s" s="2">
+      <c r="O589" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -66757,28 +66746,28 @@
         <v>101</v>
       </c>
       <c r="Z589" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="AA589" t="s" s="2">
         <v>1047</v>
       </c>
-      <c r="AA589" t="s" s="2">
+      <c r="AB589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG589" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="AB589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG589" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>38</v>
@@ -66795,13 +66784,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66827,13 +66816,13 @@
         <v>128</v>
       </c>
       <c r="M590" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="N590" t="s" s="2">
         <v>1051</v>
       </c>
-      <c r="N590" t="s" s="2">
+      <c r="O590" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="O590" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
@@ -66883,7 +66872,7 @@
         <v>37</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>38</v>
@@ -66900,13 +66889,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -66932,13 +66921,13 @@
         <v>58</v>
       </c>
       <c r="M591" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N591" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="N591" t="s" s="2">
+      <c r="O591" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="O591" t="s" s="2">
-        <v>1058</v>
       </c>
       <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
@@ -66988,7 +66977,7 @@
         <v>37</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>38</v>
@@ -67005,13 +66994,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67034,16 +67023,16 @@
         <v>37</v>
       </c>
       <c r="L592" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="M592" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="M592" t="s" s="2">
+      <c r="N592" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="N592" t="s" s="2">
+      <c r="O592" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="O592" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="P592" s="2"/>
       <c r="Q592" t="s" s="2">
@@ -67093,7 +67082,7 @@
         <v>37</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>38</v>
@@ -67110,7 +67099,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>608</v>
@@ -67215,13 +67204,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -67320,13 +67309,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -67423,13 +67412,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -67526,13 +67515,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -67631,13 +67620,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -67663,7 +67652,7 @@
         <v>46</v>
       </c>
       <c r="M598" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N598" t="s" s="2">
         <v>75</v>
@@ -67736,13 +67725,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -67841,13 +67830,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -67946,13 +67935,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -68051,13 +68040,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -68156,13 +68145,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -68261,13 +68250,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -68366,13 +68355,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -68471,13 +68460,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68576,17 +68565,17 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>813</v>
+        <v>667</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
@@ -68608,13 +68597,13 @@
         <v>187</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>814</v>
+        <v>668</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>815</v>
+        <v>669</v>
       </c>
       <c r="O607" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P607" s="2"/>
       <c r="Q607" t="s" s="2">
@@ -68664,7 +68653,7 @@
         <v>37</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>38</v>
@@ -68681,13 +68670,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68716,7 +68705,7 @@
         <v>65</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O608" t="s" s="2">
         <v>67</v>
@@ -68769,7 +68758,7 @@
         <v>37</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>38</v>
@@ -68786,13 +68775,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -68872,7 +68861,7 @@
         <v>37</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>38</v>
@@ -68889,13 +68878,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -68921,16 +68910,16 @@
         <v>128</v>
       </c>
       <c r="M610" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N610" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="O610" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="N610" t="s" s="2">
-        <v>1072</v>
-      </c>
-      <c r="O610" t="s" s="2">
+      <c r="P610" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="P610" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>37</v>
@@ -68979,7 +68968,7 @@
         <v>37</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>38</v>
@@ -68996,13 +68985,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69028,10 +69017,10 @@
         <v>128</v>
       </c>
       <c r="M611" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N611" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="N611" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
@@ -69082,7 +69071,7 @@
         <v>37</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>38</v>
@@ -69099,13 +69088,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69131,13 +69120,13 @@
         <v>119</v>
       </c>
       <c r="M612" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="N612" t="s" s="2">
         <v>833</v>
       </c>
-      <c r="N612" t="s" s="2">
+      <c r="O612" t="s" s="2">
         <v>834</v>
-      </c>
-      <c r="O612" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="P612" s="2"/>
       <c r="Q612" t="s" s="2">
@@ -69148,7 +69137,7 @@
         <v>37</v>
       </c>
       <c r="T612" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="U612" t="s" s="2">
         <v>37</v>
@@ -69166,11 +69155,11 @@
         <v>137</v>
       </c>
       <c r="Z612" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="AA612" t="s" s="2">
         <v>1074</v>
       </c>
-      <c r="AA612" t="s" s="2">
-        <v>1075</v>
-      </c>
       <c r="AB612" t="s" s="2">
         <v>37</v>
       </c>
@@ -69187,7 +69176,7 @@
         <v>37</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>44</v>
@@ -69204,13 +69193,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -69236,13 +69225,13 @@
         <v>119</v>
       </c>
       <c r="M613" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N613" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="N613" t="s" s="2">
+      <c r="O613" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="O613" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="P613" s="2"/>
       <c r="Q613" t="s" s="2">
@@ -69271,11 +69260,11 @@
         <v>137</v>
       </c>
       <c r="Z613" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AA613" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="AA613" t="s" s="2">
-        <v>842</v>
-      </c>
       <c r="AB613" t="s" s="2">
         <v>37</v>
       </c>
@@ -69292,7 +69281,7 @@
         <v>37</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>38</v>
@@ -69309,13 +69298,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69338,16 +69327,16 @@
         <v>45</v>
       </c>
       <c r="L614" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="N614" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O614" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P614" s="2"/>
       <c r="Q614" t="s" s="2">
@@ -69376,55 +69365,55 @@
         <v>123</v>
       </c>
       <c r="Z614" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AA614" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AB614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG614" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AH614" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI614" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ614" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK614" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="AB614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG614" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="AH614" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI614" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ614" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK614" t="s" s="2">
-        <v>848</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F615" s="2"/>
       <c r="G615" t="s" s="2">
@@ -69443,16 +69432,16 @@
         <v>45</v>
       </c>
       <c r="L615" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M615" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N615" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="N615" t="s" s="2">
+      <c r="O615" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="O615" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69481,11 +69470,11 @@
         <v>123</v>
       </c>
       <c r="Z615" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AA615" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="AA615" t="s" s="2">
-        <v>855</v>
-      </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
       </c>
@@ -69502,7 +69491,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>38</v>
@@ -69514,18 +69503,18 @@
         <v>37</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69548,13 +69537,13 @@
         <v>45</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69605,7 +69594,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>38</v>
@@ -69622,17 +69611,17 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
@@ -69654,13 +69643,13 @@
         <v>79</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="N617" t="s" s="2">
         <v>862</v>
       </c>
-      <c r="N617" t="s" s="2">
+      <c r="O617" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="O617" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="P617" s="2"/>
       <c r="Q617" t="s" s="2">
@@ -69710,7 +69699,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69727,13 +69716,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69756,16 +69745,16 @@
         <v>45</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="N618" t="s" s="2">
         <v>867</v>
       </c>
-      <c r="N618" t="s" s="2">
+      <c r="O618" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="O618" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -69815,7 +69804,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69832,13 +69821,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69864,13 +69853,13 @@
         <v>557</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N619" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="O619" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="O619" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
@@ -69920,7 +69909,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>38</v>
@@ -69937,13 +69926,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -69966,16 +69955,16 @@
         <v>37</v>
       </c>
       <c r="L620" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="M620" t="s" s="2">
         <v>876</v>
       </c>
-      <c r="M620" t="s" s="2">
+      <c r="N620" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="N620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="O620" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -70025,7 +70014,7 @@
         <v>37</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>38</v>
@@ -70042,13 +70031,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70074,13 +70063,13 @@
         <v>151</v>
       </c>
       <c r="M621" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="N621" t="s" s="2">
         <v>1081</v>
       </c>
-      <c r="N621" t="s" s="2">
-        <v>1082</v>
-      </c>
       <c r="O621" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -70130,7 +70119,7 @@
         <v>37</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>38</v>
@@ -70147,13 +70136,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70250,13 +70239,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70355,13 +70344,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70462,13 +70451,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70494,13 +70483,13 @@
         <v>119</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="N625" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="O625" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="O625" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -70529,11 +70518,11 @@
         <v>137</v>
       </c>
       <c r="Z625" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="AA625" t="s" s="2">
         <v>892</v>
       </c>
-      <c r="AA625" t="s" s="2">
-        <v>893</v>
-      </c>
       <c r="AB625" t="s" s="2">
         <v>37</v>
       </c>
@@ -70550,7 +70539,7 @@
         <v>37</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>44</v>
@@ -70567,13 +70556,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70596,13 +70585,13 @@
         <v>45</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -70653,7 +70642,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>44</v>
@@ -70670,13 +70659,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70702,16 +70691,16 @@
         <v>58</v>
       </c>
       <c r="M627" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="N627" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="N627" t="s" s="2">
+      <c r="O627" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="O627" t="s" s="2">
+      <c r="P627" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="P627" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70760,7 +70749,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70777,13 +70766,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70806,19 +70795,19 @@
         <v>45</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M628" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N628" t="s" s="2">
         <v>905</v>
       </c>
-      <c r="N628" t="s" s="2">
+      <c r="O628" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="O628" t="s" s="2">
+      <c r="P628" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70867,7 +70856,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70879,18 +70868,18 @@
         <v>37</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70916,10 +70905,10 @@
         <v>151</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
@@ -70970,7 +70959,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>44</v>
@@ -70987,13 +70976,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71090,13 +71079,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71195,13 +71184,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71302,13 +71291,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71331,13 +71320,13 @@
         <v>45</v>
       </c>
       <c r="L633" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="M633" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="M633" t="s" s="2">
+      <c r="N633" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="N633" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -71388,7 +71377,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>44</v>
@@ -71405,13 +71394,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71508,13 +71497,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71613,13 +71602,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71645,14 +71634,14 @@
         <v>119</v>
       </c>
       <c r="M636" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N636" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="N636" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>37</v>
@@ -71665,7 +71654,7 @@
         <v>37</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>37</v>
@@ -71680,28 +71669,28 @@
         <v>137</v>
       </c>
       <c r="Z636" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="AA636" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="AA636" t="s" s="2">
+      <c r="AB636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG636" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="AB636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG636" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>38</v>
@@ -71718,13 +71707,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71750,14 +71739,14 @@
         <v>119</v>
       </c>
       <c r="M637" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="N637" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="N637" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>37</v>
@@ -71770,7 +71759,7 @@
         <v>37</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>37</v>
@@ -71806,7 +71795,7 @@
         <v>37</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>38</v>
@@ -71823,13 +71812,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71852,19 +71841,19 @@
         <v>37</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="N638" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="O638" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="O638" t="s" s="2">
+      <c r="P638" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="P638" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="Q638" t="s" s="2">
         <v>37</v>
@@ -71913,7 +71902,7 @@
         <v>37</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>38</v>
@@ -71930,13 +71919,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -71959,19 +71948,19 @@
         <v>45</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="N639" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="O639" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="O639" t="s" s="2">
+      <c r="P639" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="P639" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="Q639" t="s" s="2">
         <v>37</v>
@@ -71984,43 +71973,43 @@
         <v>37</v>
       </c>
       <c r="U639" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="V639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG639" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="V639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG639" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72037,13 +72026,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72069,16 +72058,16 @@
         <v>145</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N640" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="N640" t="s" s="2">
+      <c r="O640" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="O640" t="s" s="2">
+      <c r="P640" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="P640" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>37</v>
@@ -72127,7 +72116,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72144,13 +72133,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72173,19 +72162,19 @@
         <v>45</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="N641" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="N641" t="s" s="2">
+      <c r="O641" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="O641" t="s" s="2">
+      <c r="P641" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="P641" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>37</v>
@@ -72234,7 +72223,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72251,13 +72240,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72283,14 +72272,14 @@
         <v>58</v>
       </c>
       <c r="M642" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N642" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N642" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>37</v>
@@ -72303,43 +72292,43 @@
         <v>37</v>
       </c>
       <c r="U642" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="V642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG642" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="V642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG642" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72356,13 +72345,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72385,17 +72374,17 @@
         <v>45</v>
       </c>
       <c r="L643" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72444,7 +72433,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72461,13 +72450,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72493,13 +72482,13 @@
         <v>97</v>
       </c>
       <c r="M644" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="N644" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="N644" t="s" s="2">
+      <c r="O644" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="O644" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -72528,51 +72517,51 @@
         <v>123</v>
       </c>
       <c r="Z644" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="AA644" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="AA644" t="s" s="2">
+      <c r="AB644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG644" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AH644" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI644" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK644" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="AB644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG644" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="AH644" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI644" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK644" t="s" s="2">
-        <v>981</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72598,13 +72587,13 @@
         <v>151</v>
       </c>
       <c r="M645" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="N645" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="N645" t="s" s="2">
+      <c r="O645" t="s" s="2">
         <v>984</v>
-      </c>
-      <c r="O645" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72654,7 +72643,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72671,13 +72660,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -72774,13 +72763,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72879,13 +72868,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -72986,13 +72975,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73015,13 +73004,13 @@
         <v>37</v>
       </c>
       <c r="L649" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="M649" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="M649" t="s" s="2">
+      <c r="N649" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="N649" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -73072,7 +73061,7 @@
         <v>37</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>38</v>
@@ -73089,13 +73078,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73118,16 +73107,16 @@
         <v>37</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M650" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="N650" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="N650" t="s" s="2">
+      <c r="O650" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="O650" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -73156,11 +73145,11 @@
         <v>109</v>
       </c>
       <c r="Z650" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="AA650" t="s" s="2">
         <v>997</v>
       </c>
-      <c r="AA650" t="s" s="2">
-        <v>998</v>
-      </c>
       <c r="AB650" t="s" s="2">
         <v>37</v>
       </c>
@@ -73177,7 +73166,7 @@
         <v>37</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>38</v>
@@ -73189,18 +73178,18 @@
         <v>37</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73223,13 +73212,13 @@
         <v>45</v>
       </c>
       <c r="L651" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M651" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M651" t="s" s="2">
+      <c r="N651" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N651" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -73280,7 +73269,7 @@
         <v>37</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>38</v>
@@ -73297,13 +73286,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73326,13 +73315,13 @@
         <v>37</v>
       </c>
       <c r="L652" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M652" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N652" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="N652" t="s" s="2">
-        <v>1020</v>
       </c>
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
@@ -73362,11 +73351,11 @@
         <v>123</v>
       </c>
       <c r="Z652" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="AA652" t="s" s="2">
         <v>1021</v>
       </c>
-      <c r="AA652" t="s" s="2">
-        <v>1022</v>
-      </c>
       <c r="AB652" t="s" s="2">
         <v>37</v>
       </c>
@@ -73383,7 +73372,7 @@
         <v>37</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>38</v>
@@ -73395,18 +73384,18 @@
         <v>37</v>
       </c>
       <c r="AK652" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73429,19 +73418,19 @@
         <v>37</v>
       </c>
       <c r="L653" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M653" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N653" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="N653" t="s" s="2">
+      <c r="O653" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="O653" t="s" s="2">
+      <c r="P653" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="P653" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="Q653" t="s" s="2">
         <v>37</v>
@@ -73469,11 +73458,11 @@
         <v>123</v>
       </c>
       <c r="Z653" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="AA653" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="AA653" t="s" s="2">
-        <v>1030</v>
-      </c>
       <c r="AB653" t="s" s="2">
         <v>37</v>
       </c>
@@ -73490,7 +73479,7 @@
         <v>37</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>38</v>
@@ -73502,18 +73491,18 @@
         <v>37</v>
       </c>
       <c r="AK653" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73536,13 +73525,13 @@
         <v>37</v>
       </c>
       <c r="L654" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M654" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="N654" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="N654" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
@@ -73593,7 +73582,7 @@
         <v>37</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>38</v>
@@ -73610,13 +73599,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -73639,16 +73628,16 @@
         <v>37</v>
       </c>
       <c r="L655" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="M655" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="M655" t="s" s="2">
+      <c r="N655" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="N655" t="s" s="2">
+      <c r="O655" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="O655" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -73698,7 +73687,7 @@
         <v>37</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>38</v>
@@ -73715,7 +73704,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>645</v>
@@ -73818,7 +73807,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>647</v>
@@ -73923,7 +73912,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>648</v>
@@ -74026,7 +74015,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>649</v>
@@ -74129,7 +74118,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>650</v>
@@ -74234,7 +74223,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>651</v>
@@ -74339,7 +74328,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>652</v>
@@ -74444,7 +74433,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>653</v>
@@ -74549,7 +74538,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>654</v>
@@ -74654,7 +74643,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>655</v>
@@ -74759,7 +74748,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>656</v>
@@ -74864,7 +74853,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>657</v>
@@ -74969,7 +74958,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>658</v>
@@ -75074,7 +75063,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>659</v>
@@ -75179,7 +75168,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>666</v>
@@ -75189,7 +75178,7 @@
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
-        <v>813</v>
+        <v>667</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
@@ -75211,13 +75200,13 @@
         <v>187</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>814</v>
+        <v>1095</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>815</v>
+        <v>669</v>
       </c>
       <c r="O670" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P670" s="2"/>
       <c r="Q670" t="s" s="2">
@@ -75267,7 +75256,7 @@
         <v>37</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>38</v>
@@ -75284,13 +75273,13 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -75368,7 +75357,7 @@
         <v>70</v>
       </c>
       <c r="AG671" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH671" t="s" s="2">
         <v>38</v>
@@ -75385,16 +75374,16 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D672" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E672" t="s" s="2">
         <v>37</v>
@@ -75416,13 +75405,13 @@
         <v>37</v>
       </c>
       <c r="L672" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M672" t="s" s="2">
         <v>1097</v>
       </c>
       <c r="N672" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O672" s="2"/>
       <c r="P672" s="2"/>
@@ -75473,7 +75462,7 @@
         <v>37</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH672" t="s" s="2">
         <v>38</v>
@@ -75490,7 +75479,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>1099</v>
@@ -75593,7 +75582,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>1101</v>
@@ -75696,7 +75685,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>1103</v>
@@ -75801,7 +75790,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>1106</v>
@@ -75830,7 +75819,7 @@
         <v>37</v>
       </c>
       <c r="L676" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M676" t="s" s="2">
         <v>558</v>
@@ -75900,7 +75889,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>1110</v>
@@ -75931,7 +75920,7 @@
         <v>37</v>
       </c>
       <c r="L677" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M677" t="s" s="2">
         <v>558</v>
@@ -76005,13 +75994,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>1112</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D678" t="s" s="2">
         <v>1113</v>
@@ -76093,7 +76082,7 @@
         <v>37</v>
       </c>
       <c r="AG678" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH678" t="s" s="2">
         <v>38</v>
@@ -76110,13 +76099,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>1117</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D679" t="s" s="2">
         <v>1118</v>
@@ -76198,7 +76187,7 @@
         <v>37</v>
       </c>
       <c r="AG679" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH679" t="s" s="2">
         <v>38</v>
@@ -76215,7 +76204,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>1122</v>
@@ -76318,7 +76307,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>1123</v>
@@ -76421,7 +76410,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>1124</v>
@@ -76526,7 +76515,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>1126</v>
@@ -76627,7 +76616,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>1128</v>
@@ -76732,16 +76721,16 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>1131</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D685" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E685" t="s" s="2">
         <v>37</v>
@@ -76763,13 +76752,13 @@
         <v>37</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M685" t="s" s="2">
         <v>1132</v>
       </c>
       <c r="N685" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
@@ -76820,7 +76809,7 @@
         <v>37</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>38</v>
@@ -76837,13 +76826,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -76923,7 +76912,7 @@
         <v>37</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>38</v>
@@ -76940,13 +76929,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -76972,10 +76961,10 @@
         <v>128</v>
       </c>
       <c r="M687" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N687" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
@@ -77014,7 +77003,7 @@
         <v>37</v>
       </c>
       <c r="AC687" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AD687" s="2"/>
       <c r="AE687" t="s" s="2">
@@ -77024,7 +77013,7 @@
         <v>70</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>38</v>
@@ -77041,16 +77030,16 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D688" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E688" t="s" s="2">
         <v>37</v>
@@ -77078,7 +77067,7 @@
         <v>1134</v>
       </c>
       <c r="N688" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
@@ -77129,7 +77118,7 @@
         <v>37</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>38</v>
@@ -77146,16 +77135,16 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D689" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E689" t="s" s="2">
         <v>37</v>
@@ -77177,13 +77166,13 @@
         <v>37</v>
       </c>
       <c r="L689" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M689" t="s" s="2">
         <v>1135</v>
       </c>
       <c r="N689" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
@@ -77234,7 +77223,7 @@
         <v>37</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>38</v>
@@ -77251,13 +77240,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -77286,10 +77275,10 @@
         <v>1136</v>
       </c>
       <c r="N690" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O690" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P690" s="2"/>
       <c r="Q690" t="s" s="2">
@@ -77300,7 +77289,7 @@
         <v>37</v>
       </c>
       <c r="T690" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="U690" t="s" s="2">
         <v>37</v>
@@ -77318,10 +77307,10 @@
         <v>137</v>
       </c>
       <c r="Z690" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AA690" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AB690" t="s" s="2">
         <v>37</v>
@@ -77339,7 +77328,7 @@
         <v>37</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>44</v>
@@ -77356,13 +77345,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -77391,13 +77380,13 @@
         <v>1137</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O691" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P691" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>37</v>
@@ -77407,7 +77396,7 @@
         <v>37</v>
       </c>
       <c r="T691" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="U691" t="s" s="2">
         <v>37</v>
@@ -77425,10 +77414,10 @@
         <v>137</v>
       </c>
       <c r="Z691" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AA691" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AB691" t="s" s="2">
         <v>37</v>
@@ -77446,7 +77435,7 @@
         <v>37</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>44</v>
@@ -77463,13 +77452,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -77498,11 +77487,11 @@
         <v>1138</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O692" s="2"/>
       <c r="P692" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q692" t="s" s="2">
         <v>37</v>
@@ -77515,7 +77504,7 @@
         <v>37</v>
       </c>
       <c r="U692" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="V692" t="s" s="2">
         <v>37</v>
@@ -77551,7 +77540,7 @@
         <v>37</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>38</v>
@@ -77568,13 +77557,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -77597,19 +77586,19 @@
         <v>45</v>
       </c>
       <c r="L693" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M693" t="s" s="2">
         <v>1139</v>
       </c>
       <c r="N693" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O693" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P693" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q693" t="s" s="2">
         <v>37</v>
@@ -77638,7 +77627,7 @@
       </c>
       <c r="Z693" s="2"/>
       <c r="AA693" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB693" t="s" s="2">
         <v>37</v>
@@ -77656,7 +77645,7 @@
         <v>37</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>38</v>
@@ -77673,13 +77662,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -77702,19 +77691,19 @@
         <v>45</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N694" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O694" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P694" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>37</v>
@@ -77763,7 +77752,7 @@
         <v>37</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>38</v>
@@ -77780,13 +77769,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -77809,13 +77798,13 @@
         <v>37</v>
       </c>
       <c r="L695" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O695" s="2"/>
       <c r="P695" s="2"/>
@@ -77866,7 +77855,7 @@
         <v>37</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>38</v>
@@ -77883,13 +77872,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -77912,19 +77901,19 @@
         <v>45</v>
       </c>
       <c r="L696" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M696" t="s" s="2">
         <v>1141</v>
       </c>
       <c r="N696" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O696" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P696" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Q696" t="s" s="2">
         <v>37</v>
@@ -77973,7 +77962,7 @@
         <v>37</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>38</v>
@@ -77990,17 +77979,17 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F697" s="2"/>
       <c r="G697" t="s" s="2">
@@ -78019,19 +78008,19 @@
         <v>45</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M697" t="s" s="2">
         <v>1142</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O697" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P697" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q697" t="s" s="2">
         <v>37</v>
@@ -78080,7 +78069,7 @@
         <v>37</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>38</v>
@@ -78092,18 +78081,18 @@
         <v>37</v>
       </c>
       <c r="AK697" t="s" s="2">
-        <v>1143</v>
+        <v>56</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78200,13 +78189,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78305,16 +78294,16 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B700" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="C700" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="D700" t="s" s="2">
         <v>1146</v>
-      </c>
-      <c r="C700" t="s" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D700" t="s" s="2">
-        <v>1147</v>
       </c>
       <c r="E700" t="s" s="2">
         <v>37</v>
@@ -78336,13 +78325,13 @@
         <v>37</v>
       </c>
       <c r="L700" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="M700" t="s" s="2">
         <v>1148</v>
       </c>
-      <c r="M700" t="s" s="2">
+      <c r="N700" t="s" s="2">
         <v>1149</v>
-      </c>
-      <c r="N700" t="s" s="2">
-        <v>1150</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
@@ -78405,18 +78394,18 @@
         <v>37</v>
       </c>
       <c r="AK700" t="s" s="2">
-        <v>1151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -78513,13 +78502,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -78616,13 +78605,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -78662,7 +78651,7 @@
       </c>
       <c r="R703" s="2"/>
       <c r="S703" t="s" s="2">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="T703" t="s" s="2">
         <v>37</v>
@@ -78721,13 +78710,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -78750,7 +78739,7 @@
         <v>37</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="M704" t="s" s="2">
         <v>558</v>
@@ -78822,13 +78811,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D705" t="s" s="2">
         <v>1129</v>
@@ -78927,13 +78916,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -78959,13 +78948,13 @@
         <v>58</v>
       </c>
       <c r="M706" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="N706" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="N706" t="s" s="2">
+      <c r="O706" t="s" s="2">
         <v>1039</v>
-      </c>
-      <c r="O706" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="P706" s="2"/>
       <c r="Q706" t="s" s="2">
@@ -79015,16 +79004,16 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AH706" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI706" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ706" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="AH706" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI706" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ706" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="AK706" t="s" s="2">
         <v>56</v>
@@ -79032,13 +79021,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79064,13 +79053,13 @@
         <v>85</v>
       </c>
       <c r="M707" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="N707" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="N707" t="s" s="2">
+      <c r="O707" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="O707" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="P707" s="2"/>
       <c r="Q707" t="s" s="2">
@@ -79099,28 +79088,28 @@
         <v>101</v>
       </c>
       <c r="Z707" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="AA707" t="s" s="2">
         <v>1047</v>
       </c>
-      <c r="AA707" t="s" s="2">
+      <c r="AB707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG707" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="AB707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG707" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>38</v>
@@ -79137,13 +79126,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79169,13 +79158,13 @@
         <v>128</v>
       </c>
       <c r="M708" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="N708" t="s" s="2">
         <v>1051</v>
       </c>
-      <c r="N708" t="s" s="2">
+      <c r="O708" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="O708" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
@@ -79225,7 +79214,7 @@
         <v>37</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>38</v>
@@ -79242,13 +79231,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -79274,13 +79263,13 @@
         <v>58</v>
       </c>
       <c r="M709" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N709" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="N709" t="s" s="2">
+      <c r="O709" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="O709" t="s" s="2">
-        <v>1058</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79330,7 +79319,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>
@@ -79347,13 +79336,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -79376,19 +79365,19 @@
         <v>37</v>
       </c>
       <c r="L710" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P710" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Q710" t="s" s="2">
         <v>37</v>
@@ -79416,10 +79405,10 @@
         <v>123</v>
       </c>
       <c r="Z710" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AA710" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AB710" t="s" s="2">
         <v>37</v>
@@ -79437,7 +79426,7 @@
         <v>37</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>38</v>
@@ -79454,13 +79443,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -79483,13 +79472,13 @@
         <v>37</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
@@ -79540,7 +79529,7 @@
         <v>37</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>38</v>
@@ -79557,13 +79546,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -79589,13 +79578,13 @@
         <v>151</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="O712" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="P712" s="2"/>
       <c r="Q712" t="s" s="2">
@@ -79645,7 +79634,7 @@
         <v>37</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>38</v>
@@ -79654,7 +79643,7 @@
         <v>39</v>
       </c>
       <c r="AJ712" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AK712" t="s" s="2">
         <v>56</v>
@@ -79662,13 +79651,13 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -79765,13 +79754,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -79870,13 +79859,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -79977,13 +79966,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -80006,19 +79995,19 @@
         <v>37</v>
       </c>
       <c r="L716" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M716" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N716" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O716" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P716" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Q716" t="s" s="2">
         <v>37</v>
@@ -80046,10 +80035,10 @@
         <v>109</v>
       </c>
       <c r="Z716" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AA716" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AB716" t="s" s="2">
         <v>37</v>
@@ -80067,7 +80056,7 @@
         <v>37</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>38</v>
@@ -80084,13 +80073,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -80113,71 +80102,71 @@
         <v>37</v>
       </c>
       <c r="L717" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="M717" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N717" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="O717" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="P717" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="Q717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R717" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="S717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF717" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG717" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M717" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N717" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="O717" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="P717" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="Q717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R717" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="S717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF717" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG717" t="s" s="2">
-        <v>769</v>
-      </c>
       <c r="AH717" t="s" s="2">
         <v>38</v>
       </c>
@@ -80185,7 +80174,7 @@
         <v>44</v>
       </c>
       <c r="AJ717" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AK717" t="s" s="2">
         <v>56</v>
@@ -80193,13 +80182,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -80222,17 +80211,17 @@
         <v>37</v>
       </c>
       <c r="L718" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M718" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N718" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O718" s="2"/>
       <c r="P718" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q718" t="s" s="2">
         <v>37</v>
@@ -80281,7 +80270,7 @@
         <v>37</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>38</v>
@@ -80298,13 +80287,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -80327,13 +80316,13 @@
         <v>37</v>
       </c>
       <c r="L719" t="s" s="2">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O719" s="2"/>
       <c r="P719" s="2"/>
@@ -80384,7 +80373,7 @@
         <v>37</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>44</v>
@@ -80401,13 +80390,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -80430,19 +80419,19 @@
         <v>37</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N720" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O720" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="P720" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Q720" t="s" s="2">
         <v>37</v>
@@ -80470,10 +80459,10 @@
         <v>123</v>
       </c>
       <c r="Z720" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AA720" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AB720" t="s" s="2">
         <v>37</v>
@@ -80491,7 +80480,7 @@
         <v>37</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>38</v>
@@ -80500,7 +80489,7 @@
         <v>44</v>
       </c>
       <c r="AJ720" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AK720" t="s" s="2">
         <v>56</v>
@@ -80508,7 +80497,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>544</v>
@@ -80540,10 +80529,10 @@
         <v>40</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -80611,7 +80600,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>549</v>
@@ -80714,7 +80703,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>550</v>
@@ -80817,7 +80806,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>552</v>
@@ -80863,7 +80852,7 @@
       </c>
       <c r="R724" s="2"/>
       <c r="S724" t="s" s="2">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="T724" t="s" s="2">
         <v>37</v>
@@ -80922,7 +80911,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>556</v>
@@ -80951,7 +80940,7 @@
         <v>37</v>
       </c>
       <c r="L725" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M725" t="s" s="2">
         <v>558</v>

--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:44:02+00:00</t>
+    <t>2023-07-27T13:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:02:42+00:00</t>
+    <t>2023-07-27T13:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/all-profiles.xlsx
+++ b/ig/nr-update-annuaire-dependency/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:15:41+00:00</t>
+    <t>2023-08-31T15:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
